--- a/src/data/Latin America and the Carribean /Mining.xlsx
+++ b/src/data/Latin America and the Carribean /Mining.xlsx
@@ -2989,10 +2989,10 @@
         <v>3000</v>
       </c>
       <c r="AU2">
-        <v>2543.05</v>
+        <v>2544.51</v>
       </c>
       <c r="AV2">
-        <v>2062.16</v>
+        <v>1827.72</v>
       </c>
       <c r="AW2" t="s">
         <v>319</v>
@@ -3001,10 +3001,10 @@
         <v>3000</v>
       </c>
       <c r="AY2">
-        <v>2494.66</v>
+        <v>2296.27</v>
       </c>
       <c r="AZ2">
-        <v>2162.7</v>
+        <v>1615.18</v>
       </c>
       <c r="BA2" t="s">
         <v>319</v>
@@ -3013,10 +3013,10 @@
         <v>3000</v>
       </c>
       <c r="BC2">
-        <v>2473.65</v>
+        <v>2360.5</v>
       </c>
       <c r="BD2">
-        <v>2011.78</v>
+        <v>1769.81</v>
       </c>
       <c r="BE2" t="s">
         <v>319</v>
@@ -3025,10 +3025,10 @@
         <v>3000</v>
       </c>
       <c r="BG2">
-        <v>2816.57</v>
+        <v>2316.74</v>
       </c>
       <c r="BH2">
-        <v>2005.56</v>
+        <v>2090.5</v>
       </c>
       <c r="BI2" t="s">
         <v>319</v>
@@ -3037,10 +3037,10 @@
         <v>3000</v>
       </c>
       <c r="BK2">
-        <v>2385.43</v>
+        <v>2643.45</v>
       </c>
       <c r="BL2">
-        <v>1721.15</v>
+        <v>2511.27</v>
       </c>
       <c r="BM2" t="s">
         <v>319</v>
@@ -3049,10 +3049,10 @@
         <v>3000</v>
       </c>
       <c r="BO2">
-        <v>2576.4</v>
+        <v>1995.68</v>
       </c>
       <c r="BP2">
-        <v>2082.7</v>
+        <v>1369.3</v>
       </c>
       <c r="BQ2" t="s">
         <v>695</v>
@@ -3061,10 +3061,10 @@
         <v>3000</v>
       </c>
       <c r="BS2">
-        <v>2586.79</v>
+        <v>2745.41</v>
       </c>
       <c r="BT2">
-        <v>1595.52</v>
+        <v>2137.85</v>
       </c>
       <c r="BU2" t="s">
         <v>319</v>
@@ -3073,10 +3073,10 @@
         <v>3000</v>
       </c>
       <c r="BW2">
-        <v>1866.28</v>
+        <v>2435.18</v>
       </c>
       <c r="BX2">
-        <v>1402.31</v>
+        <v>1596.83</v>
       </c>
       <c r="BY2" t="s">
         <v>319</v>
@@ -3085,10 +3085,10 @@
         <v>3000</v>
       </c>
       <c r="CA2">
-        <v>2482.73</v>
+        <v>2204.72</v>
       </c>
       <c r="CB2">
-        <v>2356.44</v>
+        <v>1989.83</v>
       </c>
       <c r="CC2" t="s">
         <v>319</v>
@@ -3097,10 +3097,10 @@
         <v>3000</v>
       </c>
       <c r="CE2">
-        <v>2152.96</v>
+        <v>2340.84</v>
       </c>
       <c r="CF2">
-        <v>1381.64</v>
+        <v>1870.85</v>
       </c>
       <c r="CG2" t="s">
         <v>319</v>
@@ -3109,10 +3109,10 @@
         <v>3000</v>
       </c>
       <c r="CI2">
-        <v>1857.77</v>
+        <v>2850</v>
       </c>
       <c r="CJ2">
-        <v>1697.8</v>
+        <v>2427.87</v>
       </c>
       <c r="CK2" t="s">
         <v>319</v>
@@ -3240,10 +3240,10 @@
         <v>75000</v>
       </c>
       <c r="AU3">
-        <v>48580.13</v>
+        <v>66077.91</v>
       </c>
       <c r="AV3">
-        <v>45947.91</v>
+        <v>50393.31</v>
       </c>
       <c r="AW3" t="s">
         <v>319</v>
@@ -3252,10 +3252,10 @@
         <v>75000</v>
       </c>
       <c r="AY3">
-        <v>53989.47</v>
+        <v>58363.48</v>
       </c>
       <c r="AZ3">
-        <v>35373.49</v>
+        <v>49882.93</v>
       </c>
       <c r="BA3" t="s">
         <v>319</v>
@@ -3264,10 +3264,10 @@
         <v>75000</v>
       </c>
       <c r="BC3">
-        <v>53936.92</v>
+        <v>57276.16</v>
       </c>
       <c r="BD3">
-        <v>41525.12</v>
+        <v>49276.27</v>
       </c>
       <c r="BE3" t="s">
         <v>319</v>
@@ -3276,10 +3276,10 @@
         <v>75000</v>
       </c>
       <c r="BG3">
-        <v>58671.03</v>
+        <v>54615.28</v>
       </c>
       <c r="BH3">
-        <v>43777.33</v>
+        <v>42252.03</v>
       </c>
       <c r="BI3" t="s">
         <v>319</v>
@@ -3288,10 +3288,10 @@
         <v>75000</v>
       </c>
       <c r="BK3">
-        <v>53085.73</v>
+        <v>58892.52</v>
       </c>
       <c r="BL3">
-        <v>38182.42</v>
+        <v>49299.72</v>
       </c>
       <c r="BM3" t="s">
         <v>689</v>
@@ -3300,10 +3300,10 @@
         <v>75000</v>
       </c>
       <c r="BO3">
-        <v>57643.87</v>
+        <v>62559.03</v>
       </c>
       <c r="BP3">
-        <v>36619.74</v>
+        <v>49914.53</v>
       </c>
       <c r="BQ3" t="s">
         <v>319</v>
@@ -3312,10 +3312,10 @@
         <v>100000</v>
       </c>
       <c r="BS3">
-        <v>94427.38</v>
+        <v>84224.17</v>
       </c>
       <c r="BT3">
-        <v>65706.38</v>
+        <v>72885.44</v>
       </c>
       <c r="BU3" t="s">
         <v>319</v>
@@ -3324,10 +3324,10 @@
         <v>300000</v>
       </c>
       <c r="BW3">
-        <v>243405.2</v>
+        <v>226843.39</v>
       </c>
       <c r="BX3">
-        <v>199587</v>
+        <v>183627.48</v>
       </c>
       <c r="BY3" t="s">
         <v>319</v>
@@ -3336,10 +3336,10 @@
         <v>300000</v>
       </c>
       <c r="CA3">
-        <v>256598.38</v>
+        <v>258530.76</v>
       </c>
       <c r="CB3">
-        <v>225413.43</v>
+        <v>232192.31</v>
       </c>
       <c r="CC3" t="s">
         <v>319</v>
@@ -3348,10 +3348,10 @@
         <v>300000</v>
       </c>
       <c r="CE3">
-        <v>281195.48</v>
+        <v>259367.76</v>
       </c>
       <c r="CF3">
-        <v>175793.94</v>
+        <v>229046.46</v>
       </c>
       <c r="CG3" t="s">
         <v>319</v>
@@ -3360,10 +3360,10 @@
         <v>300000</v>
       </c>
       <c r="CI3">
-        <v>252817.03</v>
+        <v>212154.49</v>
       </c>
       <c r="CJ3">
-        <v>212340.7</v>
+        <v>151747.69</v>
       </c>
       <c r="CK3" t="s">
         <v>319</v>
@@ -3491,10 +3491,10 @@
         <v>1200000</v>
       </c>
       <c r="AU4">
-        <v>1113871.43</v>
+        <v>995029.09</v>
       </c>
       <c r="AV4">
-        <v>755696.1</v>
+        <v>854775.88</v>
       </c>
       <c r="AW4" t="s">
         <v>319</v>
@@ -3503,10 +3503,10 @@
         <v>1200000</v>
       </c>
       <c r="AY4">
-        <v>1012741.78</v>
+        <v>886944.98</v>
       </c>
       <c r="AZ4">
-        <v>824270.8</v>
+        <v>590710.4</v>
       </c>
       <c r="BA4" t="s">
         <v>319</v>
@@ -3515,10 +3515,10 @@
         <v>1200000</v>
       </c>
       <c r="BC4">
-        <v>818862.1899999999</v>
+        <v>948742.85</v>
       </c>
       <c r="BD4">
-        <v>685379.6</v>
+        <v>792123.35</v>
       </c>
       <c r="BE4" t="s">
         <v>319</v>
@@ -3527,10 +3527,10 @@
         <v>1200000</v>
       </c>
       <c r="BG4">
-        <v>1095322.13</v>
+        <v>865844.83</v>
       </c>
       <c r="BH4">
-        <v>1040486.23</v>
+        <v>782021.22</v>
       </c>
       <c r="BI4" t="s">
         <v>319</v>
@@ -3539,10 +3539,10 @@
         <v>1200000</v>
       </c>
       <c r="BK4">
-        <v>856008.4300000001</v>
+        <v>1048329.29</v>
       </c>
       <c r="BL4">
-        <v>631325.04</v>
+        <v>829884.48</v>
       </c>
       <c r="BM4" t="s">
         <v>690</v>
@@ -3551,10 +3551,10 @@
         <v>1200000</v>
       </c>
       <c r="BO4">
-        <v>748921.88</v>
+        <v>882732.16</v>
       </c>
       <c r="BP4">
-        <v>583249.37</v>
+        <v>672626.37</v>
       </c>
       <c r="BQ4" t="s">
         <v>696</v>
@@ -3563,10 +3563,10 @@
         <v>1200000</v>
       </c>
       <c r="BS4">
-        <v>854483.0699999999</v>
+        <v>853547.76</v>
       </c>
       <c r="BT4">
-        <v>586824.55</v>
+        <v>652857.55</v>
       </c>
       <c r="BU4" t="s">
         <v>319</v>
@@ -3575,10 +3575,10 @@
         <v>1475000</v>
       </c>
       <c r="BW4">
-        <v>1152890.05</v>
+        <v>1306438.46</v>
       </c>
       <c r="BX4">
-        <v>1070271.38</v>
+        <v>910255.6800000001</v>
       </c>
       <c r="BY4" t="s">
         <v>319</v>
@@ -3587,10 +3587,10 @@
         <v>1475000</v>
       </c>
       <c r="CA4">
-        <v>1210163.79</v>
+        <v>1401250</v>
       </c>
       <c r="CB4">
-        <v>882045.0699999999</v>
+        <v>1157932.57</v>
       </c>
       <c r="CC4" t="s">
         <v>319</v>
@@ -3599,10 +3599,10 @@
         <v>1475000</v>
       </c>
       <c r="CE4">
-        <v>1388430.72</v>
+        <v>1088837.32</v>
       </c>
       <c r="CF4">
-        <v>980550.17</v>
+        <v>836742.3</v>
       </c>
       <c r="CG4" t="s">
         <v>319</v>
@@ -3611,10 +3611,10 @@
         <v>1475000</v>
       </c>
       <c r="CI4">
-        <v>941845.5</v>
+        <v>1215861.27</v>
       </c>
       <c r="CJ4">
-        <v>800099.78</v>
+        <v>900150.72</v>
       </c>
       <c r="CK4" t="s">
         <v>319</v>
@@ -3742,10 +3742,10 @@
         <v>256093</v>
       </c>
       <c r="AU5">
-        <v>232095.09</v>
+        <v>220271.15</v>
       </c>
       <c r="AV5">
-        <v>160960.09</v>
+        <v>193755.29</v>
       </c>
       <c r="AW5" t="s">
         <v>319</v>
@@ -3754,10 +3754,10 @@
         <v>256093</v>
       </c>
       <c r="AY5">
-        <v>205249.93</v>
+        <v>218427.57</v>
       </c>
       <c r="AZ5">
-        <v>136265.08</v>
+        <v>195276.02</v>
       </c>
       <c r="BA5" t="s">
         <v>319</v>
@@ -3766,10 +3766,10 @@
         <v>256093</v>
       </c>
       <c r="BC5">
-        <v>191143.78</v>
+        <v>175328.52</v>
       </c>
       <c r="BD5">
-        <v>116261.78</v>
+        <v>151992.87</v>
       </c>
       <c r="BE5" t="s">
         <v>319</v>
@@ -3778,10 +3778,10 @@
         <v>256093</v>
       </c>
       <c r="BG5">
-        <v>159785.59</v>
+        <v>203319.06</v>
       </c>
       <c r="BH5">
-        <v>136810.16</v>
+        <v>162729.96</v>
       </c>
       <c r="BI5" t="s">
         <v>319</v>
@@ -3790,10 +3790,10 @@
         <v>256093</v>
       </c>
       <c r="BK5">
-        <v>160367.61</v>
+        <v>206903.72</v>
       </c>
       <c r="BL5">
-        <v>131774.28</v>
+        <v>163769.67</v>
       </c>
       <c r="BM5" t="s">
         <v>319</v>
@@ -3802,10 +3802,10 @@
         <v>429611.1</v>
       </c>
       <c r="BO5">
-        <v>350906.82</v>
+        <v>373159.51</v>
       </c>
       <c r="BP5">
-        <v>291297.96</v>
+        <v>313832.67</v>
       </c>
       <c r="BQ5" t="s">
         <v>319</v>
@@ -3814,10 +3814,10 @@
         <v>436072</v>
       </c>
       <c r="BS5">
-        <v>353583.21</v>
+        <v>396208.78</v>
       </c>
       <c r="BT5">
-        <v>214554.05</v>
+        <v>350747.84</v>
       </c>
       <c r="BU5" t="s">
         <v>319</v>
@@ -3826,10 +3826,10 @@
         <v>418448</v>
       </c>
       <c r="BW5">
-        <v>328857.36</v>
+        <v>348255.53</v>
       </c>
       <c r="BX5">
-        <v>296212.78</v>
+        <v>316709.86</v>
       </c>
       <c r="BY5" t="s">
         <v>319</v>
@@ -3838,10 +3838,10 @@
         <v>416790.6</v>
       </c>
       <c r="CA5">
-        <v>345571.71</v>
+        <v>345384.55</v>
       </c>
       <c r="CB5">
-        <v>222891.19</v>
+        <v>283651.08</v>
       </c>
       <c r="CC5" t="s">
         <v>319</v>
@@ -3850,10 +3850,10 @@
         <v>416790.6</v>
       </c>
       <c r="CE5">
-        <v>375573.71</v>
+        <v>387181.58</v>
       </c>
       <c r="CF5">
-        <v>298208.95</v>
+        <v>353156.33</v>
       </c>
       <c r="CG5" t="s">
         <v>319</v>
@@ -3862,10 +3862,10 @@
         <v>416790.6</v>
       </c>
       <c r="CI5">
-        <v>261253.95</v>
+        <v>307326.16</v>
       </c>
       <c r="CJ5">
-        <v>161857.03</v>
+        <v>215687.75</v>
       </c>
       <c r="CK5" t="s">
         <v>319</v>
@@ -3993,10 +3993,10 @@
         <v>636000</v>
       </c>
       <c r="AU6">
-        <v>507088.33</v>
+        <v>571834.33</v>
       </c>
       <c r="AV6">
-        <v>443052.13</v>
+        <v>403356.76</v>
       </c>
       <c r="AW6" t="s">
         <v>319</v>
@@ -4005,10 +4005,10 @@
         <v>636000</v>
       </c>
       <c r="AY6">
-        <v>440030.74</v>
+        <v>491465.62</v>
       </c>
       <c r="AZ6">
-        <v>360257.38</v>
+        <v>425441.73</v>
       </c>
       <c r="BA6" t="s">
         <v>319</v>
@@ -4017,10 +4017,10 @@
         <v>636000</v>
       </c>
       <c r="BC6">
-        <v>593244.79</v>
+        <v>521681.7</v>
       </c>
       <c r="BD6">
-        <v>460059.38</v>
+        <v>318305.04</v>
       </c>
       <c r="BE6" t="s">
         <v>319</v>
@@ -4029,10 +4029,10 @@
         <v>636000</v>
       </c>
       <c r="BG6">
-        <v>463516.49</v>
+        <v>538837.7</v>
       </c>
       <c r="BH6">
-        <v>300671.8</v>
+        <v>418215.93</v>
       </c>
       <c r="BI6" t="s">
         <v>319</v>
@@ -4041,10 +4041,10 @@
         <v>636000</v>
       </c>
       <c r="BK6">
-        <v>508045.98</v>
+        <v>459188.98</v>
       </c>
       <c r="BL6">
-        <v>386971.67</v>
+        <v>327199.42</v>
       </c>
       <c r="BM6" t="s">
         <v>319</v>
@@ -4053,10 +4053,10 @@
         <v>636000</v>
       </c>
       <c r="BO6">
-        <v>580802.54</v>
+        <v>509339.75</v>
       </c>
       <c r="BP6">
-        <v>514404.44</v>
+        <v>343828.57</v>
       </c>
       <c r="BQ6" t="s">
         <v>319</v>
@@ -4065,10 +4065,10 @@
         <v>636000</v>
       </c>
       <c r="BS6">
-        <v>402428.58</v>
+        <v>461775.02</v>
       </c>
       <c r="BT6">
-        <v>255369.95</v>
+        <v>343439.05</v>
       </c>
       <c r="BU6" t="s">
         <v>319</v>
@@ -4077,10 +4077,10 @@
         <v>636000</v>
       </c>
       <c r="BW6">
-        <v>602647.53</v>
+        <v>477942.89</v>
       </c>
       <c r="BX6">
-        <v>410047.94</v>
+        <v>361730.9</v>
       </c>
       <c r="BY6" t="s">
         <v>319</v>
@@ -4089,10 +4089,10 @@
         <v>636000</v>
       </c>
       <c r="CA6">
-        <v>490410.9</v>
+        <v>450297.14</v>
       </c>
       <c r="CB6">
-        <v>392608.44</v>
+        <v>339838.09</v>
       </c>
       <c r="CC6" t="s">
         <v>319</v>
@@ -4101,10 +4101,10 @@
         <v>636000</v>
       </c>
       <c r="CE6">
-        <v>584742.65</v>
+        <v>470139.32</v>
       </c>
       <c r="CF6">
-        <v>438157.39</v>
+        <v>409779.56</v>
       </c>
       <c r="CG6" t="s">
         <v>319</v>
@@ -4113,10 +4113,10 @@
         <v>636000</v>
       </c>
       <c r="CI6">
-        <v>454022.45</v>
+        <v>567760.39</v>
       </c>
       <c r="CJ6">
-        <v>276095.31</v>
+        <v>423813.8</v>
       </c>
       <c r="CK6" t="s">
         <v>319</v>
@@ -4241,10 +4241,10 @@
         <v>120000</v>
       </c>
       <c r="AU7">
-        <v>86451.37</v>
+        <v>91021.86</v>
       </c>
       <c r="AV7">
-        <v>68668.46000000001</v>
+        <v>67935.28999999999</v>
       </c>
       <c r="AW7" t="s">
         <v>319</v>
@@ -4253,10 +4253,10 @@
         <v>120000</v>
       </c>
       <c r="AY7">
-        <v>97770.62</v>
+        <v>83794.85000000001</v>
       </c>
       <c r="AZ7">
-        <v>77644.83</v>
+        <v>76276.06</v>
       </c>
       <c r="BA7" t="s">
         <v>319</v>
@@ -4265,10 +4265,10 @@
         <v>120000</v>
       </c>
       <c r="BC7">
-        <v>101636.62</v>
+        <v>90364.21000000001</v>
       </c>
       <c r="BD7">
-        <v>67987.33</v>
+        <v>82947.34</v>
       </c>
       <c r="BE7" t="s">
         <v>319</v>
@@ -4277,10 +4277,10 @@
         <v>120000</v>
       </c>
       <c r="BG7">
-        <v>89028.38</v>
+        <v>93947.97</v>
       </c>
       <c r="BH7">
-        <v>84519.21000000001</v>
+        <v>85008.92999999999</v>
       </c>
       <c r="BI7" t="s">
         <v>319</v>
@@ -4289,10 +4289,10 @@
         <v>120000</v>
       </c>
       <c r="BK7">
-        <v>75406.42</v>
+        <v>113808.83</v>
       </c>
       <c r="BL7">
-        <v>47703.84</v>
+        <v>79118.99000000001</v>
       </c>
       <c r="BM7" t="s">
         <v>319</v>
@@ -4301,10 +4301,10 @@
         <v>120000</v>
       </c>
       <c r="BO7">
-        <v>77912.00999999999</v>
+        <v>107371.51</v>
       </c>
       <c r="BP7">
-        <v>68410.71000000001</v>
+        <v>80081.66</v>
       </c>
       <c r="BQ7" t="s">
         <v>319</v>
@@ -4313,10 +4313,10 @@
         <v>120000</v>
       </c>
       <c r="BS7">
-        <v>99910.36</v>
+        <v>85174.89</v>
       </c>
       <c r="BT7">
-        <v>71469.14</v>
+        <v>63750.25</v>
       </c>
       <c r="BU7" t="s">
         <v>319</v>
@@ -4325,10 +4325,10 @@
         <v>120000</v>
       </c>
       <c r="BW7">
-        <v>83152.49000000001</v>
+        <v>89931.39</v>
       </c>
       <c r="BX7">
-        <v>65079.66</v>
+        <v>60499.98</v>
       </c>
       <c r="BY7" t="s">
         <v>718</v>
@@ -4337,10 +4337,10 @@
         <v>120000</v>
       </c>
       <c r="CA7">
-        <v>110083.5</v>
+        <v>97312.03</v>
       </c>
       <c r="CB7">
-        <v>101486.17</v>
+        <v>70929.53</v>
       </c>
       <c r="CC7" t="s">
         <v>319</v>
@@ -4349,10 +4349,10 @@
         <v>120000</v>
       </c>
       <c r="CE7">
-        <v>107691.77</v>
+        <v>85490.33</v>
       </c>
       <c r="CF7">
-        <v>73600.3</v>
+        <v>66087.85000000001</v>
       </c>
       <c r="CG7" t="s">
         <v>319</v>
@@ -4361,10 +4361,10 @@
         <v>120000</v>
       </c>
       <c r="CI7">
-        <v>78704.25999999999</v>
+        <v>88927.94</v>
       </c>
       <c r="CJ7">
-        <v>67224.8</v>
+        <v>79155.39999999999</v>
       </c>
       <c r="CK7" t="s">
         <v>319</v>
@@ -4492,10 +4492,10 @@
         <v>916628</v>
       </c>
       <c r="AU8">
-        <v>694459.15</v>
+        <v>749795.15</v>
       </c>
       <c r="AV8">
-        <v>601449.9</v>
+        <v>589171.27</v>
       </c>
       <c r="AW8" t="s">
         <v>319</v>
@@ -4504,10 +4504,10 @@
         <v>916628</v>
       </c>
       <c r="AY8">
-        <v>796411.12</v>
+        <v>826623.76</v>
       </c>
       <c r="AZ8">
-        <v>704927.39</v>
+        <v>579114.14</v>
       </c>
       <c r="BA8" t="s">
         <v>319</v>
@@ -4516,10 +4516,10 @@
         <v>916628</v>
       </c>
       <c r="BC8">
-        <v>590794.61</v>
+        <v>773173.87</v>
       </c>
       <c r="BD8">
-        <v>541077.87</v>
+        <v>576882.27</v>
       </c>
       <c r="BE8" t="s">
         <v>319</v>
@@ -4528,10 +4528,10 @@
         <v>916628</v>
       </c>
       <c r="BG8">
-        <v>664691.47</v>
+        <v>777306.6</v>
       </c>
       <c r="BH8">
-        <v>463349.66</v>
+        <v>737832.3100000001</v>
       </c>
       <c r="BI8" t="s">
         <v>319</v>
@@ -4540,10 +4540,10 @@
         <v>1712922</v>
       </c>
       <c r="BK8">
-        <v>1354556.13</v>
+        <v>1447985.31</v>
       </c>
       <c r="BL8">
-        <v>830076.23</v>
+        <v>1025657.83</v>
       </c>
       <c r="BM8" t="s">
         <v>319</v>
@@ -4552,10 +4552,10 @@
         <v>804929</v>
       </c>
       <c r="BO8">
-        <v>673489</v>
+        <v>514983.5</v>
       </c>
       <c r="BP8">
-        <v>599277.3199999999</v>
+        <v>398397.14</v>
       </c>
       <c r="BQ8" t="s">
         <v>319</v>
@@ -4564,10 +4564,10 @@
         <v>804929</v>
       </c>
       <c r="BS8">
-        <v>606210.52</v>
+        <v>732788.8100000001</v>
       </c>
       <c r="BT8">
-        <v>565285.66</v>
+        <v>545577.61</v>
       </c>
       <c r="BU8" t="s">
         <v>319</v>
@@ -4576,10 +4576,10 @@
         <v>804929</v>
       </c>
       <c r="BW8">
-        <v>534337.98</v>
+        <v>663014.51</v>
       </c>
       <c r="BX8">
-        <v>426104.5</v>
+        <v>483567.16</v>
       </c>
       <c r="BY8" t="s">
         <v>319</v>
@@ -4588,10 +4588,10 @@
         <v>804929</v>
       </c>
       <c r="CA8">
-        <v>499895.99</v>
+        <v>722450.86</v>
       </c>
       <c r="CB8">
-        <v>410493.79</v>
+        <v>600828.58</v>
       </c>
       <c r="CC8" t="s">
         <v>319</v>
@@ -4600,10 +4600,10 @@
         <v>804929</v>
       </c>
       <c r="CE8">
-        <v>614450.22</v>
+        <v>532599.92</v>
       </c>
       <c r="CF8">
-        <v>550673.89</v>
+        <v>405802.31</v>
       </c>
       <c r="CG8" t="s">
         <v>319</v>
@@ -4612,10 +4612,10 @@
         <v>804929</v>
       </c>
       <c r="CI8">
-        <v>718176.9</v>
+        <v>705049.91</v>
       </c>
       <c r="CJ8">
-        <v>476030.99</v>
+        <v>625124.72</v>
       </c>
       <c r="CK8" t="s">
         <v>319</v>
@@ -4746,10 +4746,10 @@
         <v>97602</v>
       </c>
       <c r="AU9">
-        <v>74913.10000000001</v>
+        <v>92278.96000000001</v>
       </c>
       <c r="AV9">
-        <v>59812.04</v>
+        <v>81634.66</v>
       </c>
       <c r="AW9" t="s">
         <v>319</v>
@@ -4758,10 +4758,10 @@
         <v>97602</v>
       </c>
       <c r="AY9">
-        <v>68007.12</v>
+        <v>80162</v>
       </c>
       <c r="AZ9">
-        <v>44555.72</v>
+        <v>76153.89999999999</v>
       </c>
       <c r="BA9" t="s">
         <v>319</v>
@@ -4770,10 +4770,10 @@
         <v>97602</v>
       </c>
       <c r="BC9">
-        <v>78747.87</v>
+        <v>79442.28</v>
       </c>
       <c r="BD9">
-        <v>60846.34</v>
+        <v>59996.51</v>
       </c>
       <c r="BE9" t="s">
         <v>319</v>
@@ -4782,10 +4782,10 @@
         <v>97602</v>
       </c>
       <c r="BG9">
-        <v>87467.00999999999</v>
+        <v>75465.02</v>
       </c>
       <c r="BH9">
-        <v>79050.78999999999</v>
+        <v>58603.02</v>
       </c>
       <c r="BI9" t="s">
         <v>319</v>
@@ -4794,10 +4794,10 @@
         <v>97602</v>
       </c>
       <c r="BK9">
-        <v>83320.5</v>
+        <v>85944.13</v>
       </c>
       <c r="BL9">
-        <v>78973.03</v>
+        <v>74645.74000000001</v>
       </c>
       <c r="BM9" t="s">
         <v>319</v>
@@ -4806,10 +4806,10 @@
         <v>7450</v>
       </c>
       <c r="BO9">
-        <v>6669.05</v>
+        <v>5756.31</v>
       </c>
       <c r="BP9">
-        <v>4807.96</v>
+        <v>4861.6</v>
       </c>
       <c r="BQ9" t="s">
         <v>319</v>
@@ -4818,10 +4818,10 @@
         <v>46870</v>
       </c>
       <c r="BS9">
-        <v>31403.6</v>
+        <v>39856.48</v>
       </c>
       <c r="BT9">
-        <v>19613.71</v>
+        <v>30254.13</v>
       </c>
       <c r="BU9" t="s">
         <v>705</v>
@@ -4830,10 +4830,10 @@
         <v>302624</v>
       </c>
       <c r="BW9">
-        <v>254063.88</v>
+        <v>237605.44</v>
       </c>
       <c r="BX9">
-        <v>157809.02</v>
+        <v>181551.26</v>
       </c>
       <c r="BY9" t="s">
         <v>719</v>
@@ -4842,10 +4842,10 @@
         <v>302624</v>
       </c>
       <c r="CA9">
-        <v>265926.83</v>
+        <v>248426.81</v>
       </c>
       <c r="CB9">
-        <v>209485.71</v>
+        <v>210298.14</v>
       </c>
       <c r="CC9" t="s">
         <v>319</v>
@@ -4854,10 +4854,10 @@
         <v>302624</v>
       </c>
       <c r="CE9">
-        <v>194111.08</v>
+        <v>247368.24</v>
       </c>
       <c r="CF9">
-        <v>165969.24</v>
+        <v>198499.12</v>
       </c>
       <c r="CG9" t="s">
         <v>319</v>
@@ -4866,10 +4866,10 @@
         <v>302624</v>
       </c>
       <c r="CI9">
-        <v>268776.76</v>
+        <v>258043.68</v>
       </c>
       <c r="CJ9">
-        <v>206470.42</v>
+        <v>184985.62</v>
       </c>
       <c r="CK9" t="s">
         <v>319</v>
@@ -5155,10 +5155,10 @@
         <v>26457.33333333333</v>
       </c>
       <c r="AU11">
-        <v>23704.32</v>
+        <v>22654.54</v>
       </c>
       <c r="AV11">
-        <v>20018.91</v>
+        <v>16268.79</v>
       </c>
       <c r="AW11" t="s">
         <v>319</v>
@@ -5167,10 +5167,10 @@
         <v>26457.33333333333</v>
       </c>
       <c r="AY11">
-        <v>17737.23</v>
+        <v>25134.47</v>
       </c>
       <c r="AZ11">
-        <v>12388.71</v>
+        <v>19679.47</v>
       </c>
       <c r="BA11" t="s">
         <v>319</v>
@@ -5179,10 +5179,10 @@
         <v>26457.33333333333</v>
       </c>
       <c r="BC11">
-        <v>20700.28</v>
+        <v>24989.45</v>
       </c>
       <c r="BD11">
-        <v>14131.48</v>
+        <v>23416.05</v>
       </c>
       <c r="BE11" t="s">
         <v>319</v>
@@ -5191,10 +5191,10 @@
         <v>26457.33333333333</v>
       </c>
       <c r="BG11">
-        <v>19012.35</v>
+        <v>22071.31</v>
       </c>
       <c r="BH11">
-        <v>13394.88</v>
+        <v>16722.31</v>
       </c>
       <c r="BI11" t="s">
         <v>319</v>
@@ -5203,10 +5203,10 @@
         <v>26457.33333333333</v>
       </c>
       <c r="BK11">
-        <v>21406.43</v>
+        <v>17883.64</v>
       </c>
       <c r="BL11">
-        <v>18263.99</v>
+        <v>14924.73</v>
       </c>
       <c r="BM11" t="s">
         <v>319</v>
@@ -5215,10 +5215,10 @@
         <v>26457.33333333333</v>
       </c>
       <c r="BO11">
-        <v>18312.29</v>
+        <v>22288.1</v>
       </c>
       <c r="BP11">
-        <v>14529.37</v>
+        <v>18860.39</v>
       </c>
       <c r="BQ11" t="s">
         <v>319</v>
@@ -5227,10 +5227,10 @@
         <v>26457.33333333333</v>
       </c>
       <c r="BS11">
-        <v>19962.01</v>
+        <v>18959.58</v>
       </c>
       <c r="BT11">
-        <v>13123.54</v>
+        <v>11962.79</v>
       </c>
       <c r="BU11" t="s">
         <v>319</v>
@@ -5239,10 +5239,10 @@
         <v>26457.33333333333</v>
       </c>
       <c r="BW11">
-        <v>22184.16</v>
+        <v>21430.39</v>
       </c>
       <c r="BX11">
-        <v>14548.67</v>
+        <v>20358.87</v>
       </c>
       <c r="BY11" t="s">
         <v>720</v>
@@ -5251,10 +5251,10 @@
         <v>33124</v>
       </c>
       <c r="CA11">
-        <v>20983.54</v>
+        <v>22652.05</v>
       </c>
       <c r="CB11">
-        <v>14299.34</v>
+        <v>16110.92</v>
       </c>
       <c r="CC11" t="s">
         <v>319</v>
@@ -5263,10 +5263,10 @@
         <v>28790.66666666667</v>
       </c>
       <c r="CE11">
-        <v>21676.64</v>
+        <v>24265.01</v>
       </c>
       <c r="CF11">
-        <v>16899.66</v>
+        <v>20181.75</v>
       </c>
       <c r="CG11" t="s">
         <v>319</v>
@@ -5275,10 +5275,10 @@
         <v>28790.66666666667</v>
       </c>
       <c r="CI11">
-        <v>26926.85</v>
+        <v>25542.99</v>
       </c>
       <c r="CJ11">
-        <v>17469.01</v>
+        <v>20439.51</v>
       </c>
       <c r="CK11" t="s">
         <v>319</v>
@@ -5558,10 +5558,10 @@
         <v>36000</v>
       </c>
       <c r="AU13">
-        <v>28246.54</v>
+        <v>34200</v>
       </c>
       <c r="AV13">
-        <v>21508.39</v>
+        <v>26988.64</v>
       </c>
       <c r="AW13" t="s">
         <v>319</v>
@@ -5570,10 +5570,10 @@
         <v>36000</v>
       </c>
       <c r="AY13">
-        <v>33541.63</v>
+        <v>25545.52</v>
       </c>
       <c r="AZ13">
-        <v>21735.2</v>
+        <v>18991.09</v>
       </c>
       <c r="BA13" t="s">
         <v>319</v>
@@ -5582,10 +5582,10 @@
         <v>36000</v>
       </c>
       <c r="BC13">
-        <v>33099.85</v>
+        <v>28054.7</v>
       </c>
       <c r="BD13">
-        <v>22341.87</v>
+        <v>26651.96</v>
       </c>
       <c r="BE13" t="s">
         <v>319</v>
@@ -5594,10 +5594,10 @@
         <v>36000</v>
       </c>
       <c r="BG13">
-        <v>29755.75</v>
+        <v>25374.2</v>
       </c>
       <c r="BH13">
-        <v>19990.28</v>
+        <v>22454.35</v>
       </c>
       <c r="BI13" t="s">
         <v>319</v>
@@ -5606,10 +5606,10 @@
         <v>36000</v>
       </c>
       <c r="BK13">
-        <v>27130.59</v>
+        <v>29469.95</v>
       </c>
       <c r="BL13">
-        <v>22615.91</v>
+        <v>24408.09</v>
       </c>
       <c r="BM13" t="s">
         <v>319</v>
@@ -5618,10 +5618,10 @@
         <v>36000</v>
       </c>
       <c r="BO13">
-        <v>25362.46</v>
+        <v>24387.09</v>
       </c>
       <c r="BP13">
-        <v>18321.58</v>
+        <v>16981.45</v>
       </c>
       <c r="BQ13" t="s">
         <v>697</v>
@@ -5630,10 +5630,10 @@
         <v>100000</v>
       </c>
       <c r="BS13">
-        <v>65063</v>
+        <v>67140.55</v>
       </c>
       <c r="BT13">
-        <v>48377.35</v>
+        <v>54046.6</v>
       </c>
       <c r="BU13" t="s">
         <v>319</v>
@@ -5642,10 +5642,10 @@
         <v>64193</v>
       </c>
       <c r="BW13">
-        <v>45240.76</v>
+        <v>57691.65</v>
       </c>
       <c r="BX13">
-        <v>38842.97</v>
+        <v>42800.09</v>
       </c>
       <c r="BY13" t="s">
         <v>319</v>
@@ -5654,10 +5654,10 @@
         <v>64193</v>
       </c>
       <c r="CA13">
-        <v>45562.61</v>
+        <v>53269.21</v>
       </c>
       <c r="CB13">
-        <v>37907.17</v>
+        <v>46133.29</v>
       </c>
       <c r="CC13" t="s">
         <v>319</v>
@@ -5666,10 +5666,10 @@
         <v>64193</v>
       </c>
       <c r="CE13">
-        <v>51525.23</v>
+        <v>50627.29</v>
       </c>
       <c r="CF13">
-        <v>35886.35</v>
+        <v>39221.93</v>
       </c>
       <c r="CG13" t="s">
         <v>319</v>
@@ -5678,10 +5678,10 @@
         <v>64193</v>
       </c>
       <c r="CI13">
-        <v>39719.27</v>
+        <v>49631.32</v>
       </c>
       <c r="CJ13">
-        <v>35579.65</v>
+        <v>35997.78</v>
       </c>
       <c r="CK13" t="s">
         <v>319</v>
@@ -5806,10 +5806,10 @@
         <v>70000</v>
       </c>
       <c r="AU14">
-        <v>45105.76</v>
+        <v>60246.04</v>
       </c>
       <c r="AV14">
-        <v>27953.31</v>
+        <v>49785.85</v>
       </c>
       <c r="AW14" t="s">
         <v>319</v>
@@ -5818,10 +5818,10 @@
         <v>70000</v>
       </c>
       <c r="AY14">
-        <v>63529.66</v>
+        <v>58225.58</v>
       </c>
       <c r="AZ14">
-        <v>42639.97</v>
+        <v>45312.39</v>
       </c>
       <c r="BA14" t="s">
         <v>319</v>
@@ -5830,10 +5830,10 @@
         <v>70000</v>
       </c>
       <c r="BC14">
-        <v>45871.15</v>
+        <v>57828.89</v>
       </c>
       <c r="BD14">
-        <v>42454.49</v>
+        <v>45201.32</v>
       </c>
       <c r="BE14" t="s">
         <v>319</v>
@@ -5842,10 +5842,10 @@
         <v>70000</v>
       </c>
       <c r="BG14">
-        <v>53850.29</v>
+        <v>57569.26</v>
       </c>
       <c r="BH14">
-        <v>34974.16</v>
+        <v>48571.01</v>
       </c>
       <c r="BI14" t="s">
         <v>319</v>
@@ -5854,10 +5854,10 @@
         <v>70000</v>
       </c>
       <c r="BK14">
-        <v>57968.62</v>
+        <v>61049.77</v>
       </c>
       <c r="BL14">
-        <v>51501.17</v>
+        <v>48732.89</v>
       </c>
       <c r="BM14" t="s">
         <v>691</v>
@@ -5866,10 +5866,10 @@
         <v>60000</v>
       </c>
       <c r="BO14">
-        <v>37452.36</v>
+        <v>42215.22</v>
       </c>
       <c r="BP14">
-        <v>35466.53</v>
+        <v>33240.99</v>
       </c>
       <c r="BQ14" t="s">
         <v>698</v>
@@ -5878,10 +5878,10 @@
         <v>55873</v>
       </c>
       <c r="BS14">
-        <v>46619.2</v>
+        <v>38633.36</v>
       </c>
       <c r="BT14">
-        <v>31934.07</v>
+        <v>33966.44</v>
       </c>
       <c r="BU14" t="s">
         <v>319</v>
@@ -5890,10 +5890,10 @@
         <v>55873</v>
       </c>
       <c r="BW14">
-        <v>36722.89</v>
+        <v>51554.53</v>
       </c>
       <c r="BX14">
-        <v>28867.46</v>
+        <v>46179.05</v>
       </c>
       <c r="BY14" t="s">
         <v>319</v>
@@ -5902,10 +5902,10 @@
         <v>55873</v>
       </c>
       <c r="CA14">
-        <v>34806.22</v>
+        <v>40708.04</v>
       </c>
       <c r="CB14">
-        <v>27579.3</v>
+        <v>34391.52</v>
       </c>
       <c r="CC14" t="s">
         <v>319</v>
@@ -5914,10 +5914,10 @@
         <v>55873</v>
       </c>
       <c r="CE14">
-        <v>35408.41</v>
+        <v>45036.5</v>
       </c>
       <c r="CF14">
-        <v>21476.29</v>
+        <v>42784.67</v>
       </c>
       <c r="CG14" t="s">
         <v>319</v>
@@ -5926,10 +5926,10 @@
         <v>55873</v>
       </c>
       <c r="CI14">
-        <v>40602.63</v>
+        <v>41074.02</v>
       </c>
       <c r="CJ14">
-        <v>30858.39</v>
+        <v>28946.99</v>
       </c>
       <c r="CK14" t="s">
         <v>319</v>
@@ -6057,10 +6057,10 @@
         <v>11000</v>
       </c>
       <c r="AU15">
-        <v>10268.19</v>
+        <v>9451.85</v>
       </c>
       <c r="AV15">
-        <v>6831.27</v>
+        <v>7034.51</v>
       </c>
       <c r="AW15" t="s">
         <v>319</v>
@@ -6069,10 +6069,10 @@
         <v>11000</v>
       </c>
       <c r="AY15">
-        <v>7941.52</v>
+        <v>8943.68</v>
       </c>
       <c r="AZ15">
-        <v>5114.78</v>
+        <v>6020.83</v>
       </c>
       <c r="BA15" t="s">
         <v>319</v>
@@ -6081,10 +6081,10 @@
         <v>11000</v>
       </c>
       <c r="BC15">
-        <v>7591.66</v>
+        <v>7128.3</v>
       </c>
       <c r="BD15">
-        <v>6846.69</v>
+        <v>6771.89</v>
       </c>
       <c r="BE15" t="s">
         <v>319</v>
@@ -6093,10 +6093,10 @@
         <v>11000</v>
       </c>
       <c r="BG15">
-        <v>7773.31</v>
+        <v>8770.59</v>
       </c>
       <c r="BH15">
-        <v>5473.33</v>
+        <v>8049.73</v>
       </c>
       <c r="BI15" t="s">
         <v>319</v>
@@ -6105,10 +6105,10 @@
         <v>11000</v>
       </c>
       <c r="BK15">
-        <v>9338.66</v>
+        <v>9006.610000000001</v>
       </c>
       <c r="BL15">
-        <v>8051.49</v>
+        <v>6490.24</v>
       </c>
       <c r="BM15" t="s">
         <v>319</v>
@@ -6117,10 +6117,10 @@
         <v>11000</v>
       </c>
       <c r="BO15">
-        <v>7790.79</v>
+        <v>8214.82</v>
       </c>
       <c r="BP15">
-        <v>6801.56</v>
+        <v>6509.29</v>
       </c>
       <c r="BQ15" t="s">
         <v>319</v>
@@ -6129,10 +6129,10 @@
         <v>11000</v>
       </c>
       <c r="BS15">
-        <v>9972.459999999999</v>
+        <v>7507.87</v>
       </c>
       <c r="BT15">
-        <v>7248.55</v>
+        <v>6495.62</v>
       </c>
       <c r="BU15" t="s">
         <v>319</v>
@@ -6141,10 +6141,10 @@
         <v>11000</v>
       </c>
       <c r="BW15">
-        <v>8868.32</v>
+        <v>9217.1</v>
       </c>
       <c r="BX15">
-        <v>5831.14</v>
+        <v>8565.950000000001</v>
       </c>
       <c r="BY15" t="s">
         <v>319</v>
@@ -6153,10 +6153,10 @@
         <v>11000</v>
       </c>
       <c r="CA15">
-        <v>7019.4</v>
+        <v>9771.82</v>
       </c>
       <c r="CB15">
-        <v>5182.37</v>
+        <v>7871.64</v>
       </c>
       <c r="CC15" t="s">
         <v>319</v>
@@ -6165,10 +6165,10 @@
         <v>11000</v>
       </c>
       <c r="CE15">
-        <v>8259.049999999999</v>
+        <v>9680.66</v>
       </c>
       <c r="CF15">
-        <v>5732.65</v>
+        <v>8950.91</v>
       </c>
       <c r="CG15" t="s">
         <v>319</v>
@@ -6177,10 +6177,10 @@
         <v>11000</v>
       </c>
       <c r="CI15">
-        <v>8570.41</v>
+        <v>7629.95</v>
       </c>
       <c r="CJ15">
-        <v>7617.45</v>
+        <v>5583.88</v>
       </c>
       <c r="CK15" t="s">
         <v>319</v>
@@ -6311,10 +6311,10 @@
         <v>39542</v>
       </c>
       <c r="AU16">
-        <v>27557.02</v>
+        <v>29655.44</v>
       </c>
       <c r="AV16">
-        <v>22426.78</v>
+        <v>23345.38</v>
       </c>
       <c r="AW16" t="s">
         <v>319</v>
@@ -6323,10 +6323,10 @@
         <v>39542</v>
       </c>
       <c r="AY16">
-        <v>25155.68</v>
+        <v>27948.79</v>
       </c>
       <c r="AZ16">
-        <v>15931.09</v>
+        <v>20980.72</v>
       </c>
       <c r="BA16" t="s">
         <v>319</v>
@@ -6335,10 +6335,10 @@
         <v>39542</v>
       </c>
       <c r="BC16">
-        <v>34416.55</v>
+        <v>28310.8</v>
       </c>
       <c r="BD16">
-        <v>25250.74</v>
+        <v>24416.43</v>
       </c>
       <c r="BE16" t="s">
         <v>319</v>
@@ -6347,10 +6347,10 @@
         <v>39542</v>
       </c>
       <c r="BG16">
-        <v>33342.41</v>
+        <v>28967.84</v>
       </c>
       <c r="BH16">
-        <v>23299.53</v>
+        <v>25105.39</v>
       </c>
       <c r="BI16" t="s">
         <v>319</v>
@@ -6359,10 +6359,10 @@
         <v>39542</v>
       </c>
       <c r="BK16">
-        <v>31428.88</v>
+        <v>27010.95</v>
       </c>
       <c r="BL16">
-        <v>24187.04</v>
+        <v>22844.95</v>
       </c>
       <c r="BM16" t="s">
         <v>319</v>
@@ -6371,10 +6371,10 @@
         <v>39542</v>
       </c>
       <c r="BO16">
-        <v>37470.21</v>
+        <v>30445.97</v>
       </c>
       <c r="BP16">
-        <v>35191.8</v>
+        <v>20396.64</v>
       </c>
       <c r="BQ16" t="s">
         <v>699</v>
@@ -6383,10 +6383,10 @@
         <v>46700</v>
       </c>
       <c r="BS16">
-        <v>43287.02</v>
+        <v>38877.06</v>
       </c>
       <c r="BT16">
-        <v>33432.23</v>
+        <v>29383.63</v>
       </c>
       <c r="BU16" t="s">
         <v>706</v>
@@ -6395,10 +6395,10 @@
         <v>50000</v>
       </c>
       <c r="BW16">
-        <v>34808.68</v>
+        <v>40328.5</v>
       </c>
       <c r="BX16">
-        <v>28273.78</v>
+        <v>32948.15</v>
       </c>
       <c r="BY16" t="s">
         <v>721</v>
@@ -6407,10 +6407,10 @@
         <v>70000</v>
       </c>
       <c r="CA16">
-        <v>52426.13</v>
+        <v>60231.24</v>
       </c>
       <c r="CB16">
-        <v>39746.52</v>
+        <v>53123.72</v>
       </c>
       <c r="CC16" t="s">
         <v>319</v>
@@ -6419,10 +6419,10 @@
         <v>70000</v>
       </c>
       <c r="CE16">
-        <v>57506.79</v>
+        <v>59464.56</v>
       </c>
       <c r="CF16">
-        <v>48914.03</v>
+        <v>42266.5</v>
       </c>
       <c r="CG16" t="s">
         <v>319</v>
@@ -6431,10 +6431,10 @@
         <v>70000</v>
       </c>
       <c r="CI16">
-        <v>43862.01</v>
+        <v>51716.99</v>
       </c>
       <c r="CJ16">
-        <v>34777.9</v>
+        <v>41881.22</v>
       </c>
       <c r="CK16" t="s">
         <v>319</v>
@@ -6562,10 +6562,10 @@
         <v>129321</v>
       </c>
       <c r="AU17">
-        <v>115066.46</v>
+        <v>100164.61</v>
       </c>
       <c r="AV17">
-        <v>102593.22</v>
+        <v>91574.36</v>
       </c>
       <c r="AW17" t="s">
         <v>319</v>
@@ -6574,10 +6574,10 @@
         <v>129321</v>
       </c>
       <c r="AY17">
-        <v>93106.67</v>
+        <v>110460.34</v>
       </c>
       <c r="AZ17">
-        <v>72929.73</v>
+        <v>78720.73</v>
       </c>
       <c r="BA17" t="s">
         <v>319</v>
@@ -6586,10 +6586,10 @@
         <v>129321</v>
       </c>
       <c r="BC17">
-        <v>89089.33</v>
+        <v>87091.83</v>
       </c>
       <c r="BD17">
-        <v>77119.82000000001</v>
+        <v>74125.22</v>
       </c>
       <c r="BE17" t="s">
         <v>319</v>
@@ -6598,10 +6598,10 @@
         <v>129321</v>
       </c>
       <c r="BG17">
-        <v>118260.63</v>
+        <v>122854.95</v>
       </c>
       <c r="BH17">
-        <v>111645.86</v>
+        <v>102078.32</v>
       </c>
       <c r="BI17" t="s">
         <v>319</v>
@@ -6610,10 +6610,10 @@
         <v>129321</v>
       </c>
       <c r="BK17">
-        <v>98355.19</v>
+        <v>122854.95</v>
       </c>
       <c r="BL17">
-        <v>72507.82000000001</v>
+        <v>113143.14</v>
       </c>
       <c r="BM17" t="s">
         <v>319</v>
@@ -6622,10 +6622,10 @@
         <v>129321</v>
       </c>
       <c r="BO17">
-        <v>106283.64</v>
+        <v>109194.47</v>
       </c>
       <c r="BP17">
-        <v>83808</v>
+        <v>92397.22</v>
       </c>
       <c r="BQ17" t="s">
         <v>319</v>
@@ -6634,10 +6634,10 @@
         <v>129321</v>
       </c>
       <c r="BS17">
-        <v>110486.46</v>
+        <v>109119.84</v>
       </c>
       <c r="BT17">
-        <v>99123.58</v>
+        <v>82729.89</v>
       </c>
       <c r="BU17" t="s">
         <v>319</v>
@@ -6646,10 +6646,10 @@
         <v>129321</v>
       </c>
       <c r="BW17">
-        <v>98467.53</v>
+        <v>102464.74</v>
       </c>
       <c r="BX17">
-        <v>81825.87</v>
+        <v>88834.02</v>
       </c>
       <c r="BY17" t="s">
         <v>722</v>
@@ -6658,10 +6658,10 @@
         <v>1233432</v>
       </c>
       <c r="CA17">
-        <v>1046942.36</v>
+        <v>885654.22</v>
       </c>
       <c r="CB17">
-        <v>657918.21</v>
+        <v>797179.75</v>
       </c>
       <c r="CC17" t="s">
         <v>319</v>
@@ -6670,10 +6670,10 @@
         <v>1233432</v>
       </c>
       <c r="CE17">
-        <v>957526.41</v>
+        <v>868823.03</v>
       </c>
       <c r="CF17">
-        <v>781950.98</v>
+        <v>601983.65</v>
       </c>
       <c r="CG17" t="s">
         <v>319</v>
@@ -6682,10 +6682,10 @@
         <v>1233432</v>
       </c>
       <c r="CI17">
-        <v>925936.03</v>
+        <v>1062690.9</v>
       </c>
       <c r="CJ17">
-        <v>665838.85</v>
+        <v>784573.4399999999</v>
       </c>
       <c r="CK17" t="s">
         <v>319</v>
@@ -6813,10 +6813,10 @@
         <v>68250</v>
       </c>
       <c r="AU18">
-        <v>60768.2</v>
+        <v>54493.39</v>
       </c>
       <c r="AV18">
-        <v>57263.75</v>
+        <v>41796.16</v>
       </c>
       <c r="AW18" t="s">
         <v>319</v>
@@ -6825,10 +6825,10 @@
         <v>68250</v>
       </c>
       <c r="AY18">
-        <v>45746.79</v>
+        <v>61944.7</v>
       </c>
       <c r="AZ18">
-        <v>42381.47</v>
+        <v>46098.88</v>
       </c>
       <c r="BA18" t="s">
         <v>319</v>
@@ -6837,10 +6837,10 @@
         <v>68250</v>
       </c>
       <c r="BC18">
-        <v>55225.14</v>
+        <v>54748.77</v>
       </c>
       <c r="BD18">
-        <v>38045.38</v>
+        <v>32615.54</v>
       </c>
       <c r="BE18" t="s">
         <v>319</v>
@@ -6849,10 +6849,10 @@
         <v>68250</v>
       </c>
       <c r="BG18">
-        <v>42886.36</v>
+        <v>49963.42</v>
       </c>
       <c r="BH18">
-        <v>31700.6</v>
+        <v>43600.8</v>
       </c>
       <c r="BI18" t="s">
         <v>319</v>
@@ -6861,10 +6861,10 @@
         <v>142498</v>
       </c>
       <c r="BK18">
-        <v>98766.75</v>
+        <v>100471.99</v>
       </c>
       <c r="BL18">
-        <v>60411.56</v>
+        <v>72868.39</v>
       </c>
       <c r="BM18" t="s">
         <v>319</v>
@@ -6873,10 +6873,10 @@
         <v>101717</v>
       </c>
       <c r="BO18">
-        <v>72040.74000000001</v>
+        <v>72148.17999999999</v>
       </c>
       <c r="BP18">
-        <v>64946.7</v>
+        <v>58534.53</v>
       </c>
       <c r="BQ18" t="s">
         <v>319</v>
@@ -6885,10 +6885,10 @@
         <v>101717</v>
       </c>
       <c r="BS18">
-        <v>79888.73</v>
+        <v>90446.12</v>
       </c>
       <c r="BT18">
-        <v>71709.17999999999</v>
+        <v>63708.71</v>
       </c>
       <c r="BU18" t="s">
         <v>319</v>
@@ -6897,10 +6897,10 @@
         <v>101717</v>
       </c>
       <c r="BW18">
-        <v>91458.92999999999</v>
+        <v>88839.34</v>
       </c>
       <c r="BX18">
-        <v>59197.88</v>
+        <v>62371.09</v>
       </c>
       <c r="BY18" t="s">
         <v>319</v>
@@ -6909,10 +6909,10 @@
         <v>101717</v>
       </c>
       <c r="CA18">
-        <v>70579.88</v>
+        <v>92311.95</v>
       </c>
       <c r="CB18">
-        <v>58185.73</v>
+        <v>73651.97</v>
       </c>
       <c r="CC18" t="s">
         <v>319</v>
@@ -6921,10 +6921,10 @@
         <v>101717</v>
       </c>
       <c r="CE18">
-        <v>80993.28999999999</v>
+        <v>71704.52</v>
       </c>
       <c r="CF18">
-        <v>48725.75</v>
+        <v>56086.93</v>
       </c>
       <c r="CG18" t="s">
         <v>319</v>
@@ -6933,10 +6933,10 @@
         <v>101717</v>
       </c>
       <c r="CI18">
-        <v>73424</v>
+        <v>84362.02</v>
       </c>
       <c r="CJ18">
-        <v>67962.67</v>
+        <v>70707.33</v>
       </c>
       <c r="CK18" t="s">
         <v>319</v>
@@ -7070,10 +7070,10 @@
         <v>129367</v>
       </c>
       <c r="AU19">
-        <v>80142.35000000001</v>
+        <v>93032.75</v>
       </c>
       <c r="AV19">
-        <v>59301.08</v>
+        <v>68736.72</v>
       </c>
       <c r="AW19" t="s">
         <v>319</v>
@@ -7082,10 +7082,10 @@
         <v>129367</v>
       </c>
       <c r="AY19">
-        <v>104172.33</v>
+        <v>98449.55</v>
       </c>
       <c r="AZ19">
-        <v>94773.14</v>
+        <v>76761.78</v>
       </c>
       <c r="BA19" t="s">
         <v>319</v>
@@ -7094,10 +7094,10 @@
         <v>129367</v>
       </c>
       <c r="BC19">
-        <v>117957.84</v>
+        <v>110410.44</v>
       </c>
       <c r="BD19">
-        <v>100540.64</v>
+        <v>77996.75</v>
       </c>
       <c r="BE19" t="s">
         <v>319</v>
@@ -7106,10 +7106,10 @@
         <v>129367</v>
       </c>
       <c r="BG19">
-        <v>91287.10000000001</v>
+        <v>107803.3</v>
       </c>
       <c r="BH19">
-        <v>66018.52</v>
+        <v>77136.42</v>
       </c>
       <c r="BI19" t="s">
         <v>319</v>
@@ -7118,10 +7118,10 @@
         <v>129367</v>
       </c>
       <c r="BK19">
-        <v>108006.37</v>
+        <v>98719.75999999999</v>
       </c>
       <c r="BL19">
-        <v>98862.16</v>
+        <v>78607.60000000001</v>
       </c>
       <c r="BM19" t="s">
         <v>319</v>
@@ -7130,10 +7130,10 @@
         <v>129367</v>
       </c>
       <c r="BO19">
-        <v>92924.10000000001</v>
+        <v>99177.64</v>
       </c>
       <c r="BP19">
-        <v>59225.48</v>
+        <v>85859.72</v>
       </c>
       <c r="BQ19" t="s">
         <v>319</v>
@@ -7142,10 +7142,10 @@
         <v>129367</v>
       </c>
       <c r="BS19">
-        <v>94734.63</v>
+        <v>88425.17999999999</v>
       </c>
       <c r="BT19">
-        <v>68890.21000000001</v>
+        <v>62859.1</v>
       </c>
       <c r="BU19" t="s">
         <v>319</v>
@@ -7154,10 +7154,10 @@
         <v>129367</v>
       </c>
       <c r="BW19">
-        <v>80818.34</v>
+        <v>94308.10000000001</v>
       </c>
       <c r="BX19">
-        <v>67350.31</v>
+        <v>70352.67999999999</v>
       </c>
       <c r="BY19" t="s">
         <v>319</v>
@@ -7166,10 +7166,10 @@
         <v>129367</v>
       </c>
       <c r="CA19">
-        <v>120343.39</v>
+        <v>96178.11</v>
       </c>
       <c r="CB19">
-        <v>98354.14</v>
+        <v>78719.00999999999</v>
       </c>
       <c r="CC19" t="s">
         <v>319</v>
@@ -7178,10 +7178,10 @@
         <v>129367</v>
       </c>
       <c r="CE19">
-        <v>115731.16</v>
+        <v>105815.04</v>
       </c>
       <c r="CF19">
-        <v>71851.33</v>
+        <v>87206.99000000001</v>
       </c>
       <c r="CG19" t="s">
         <v>319</v>
@@ -7190,10 +7190,10 @@
         <v>129367</v>
       </c>
       <c r="CI19">
-        <v>89759.92</v>
+        <v>111227.2</v>
       </c>
       <c r="CJ19">
-        <v>68138.25</v>
+        <v>94220.64999999999</v>
       </c>
       <c r="CK19" t="s">
         <v>319</v>
@@ -7318,10 +7318,10 @@
         <v>66372</v>
       </c>
       <c r="AU20">
-        <v>61046.03</v>
+        <v>40928.62</v>
       </c>
       <c r="AV20">
-        <v>46612.81</v>
+        <v>32001.71</v>
       </c>
       <c r="AW20" t="s">
         <v>319</v>
@@ -7330,10 +7330,10 @@
         <v>66372</v>
       </c>
       <c r="AY20">
-        <v>43280.29</v>
+        <v>47643.54</v>
       </c>
       <c r="AZ20">
-        <v>28141.84</v>
+        <v>32485.22</v>
       </c>
       <c r="BA20" t="s">
         <v>319</v>
@@ -7342,10 +7342,10 @@
         <v>66372</v>
       </c>
       <c r="BC20">
-        <v>60945.91</v>
+        <v>53329.75</v>
       </c>
       <c r="BD20">
-        <v>45899.26</v>
+        <v>39934.16</v>
       </c>
       <c r="BE20" t="s">
         <v>319</v>
@@ -7354,10 +7354,10 @@
         <v>66372</v>
       </c>
       <c r="BG20">
-        <v>45987.45</v>
+        <v>49516.71</v>
       </c>
       <c r="BH20">
-        <v>33751.69</v>
+        <v>47040.88</v>
       </c>
       <c r="BI20" t="s">
         <v>319</v>
@@ -7366,10 +7366,10 @@
         <v>66372</v>
       </c>
       <c r="BK20">
-        <v>61438.49</v>
+        <v>49249.63</v>
       </c>
       <c r="BL20">
-        <v>49347.19</v>
+        <v>38940.92</v>
       </c>
       <c r="BM20" t="s">
         <v>319</v>
@@ -7378,10 +7378,10 @@
         <v>66372</v>
       </c>
       <c r="BO20">
-        <v>46655.16</v>
+        <v>58691.75</v>
       </c>
       <c r="BP20">
-        <v>33138.42</v>
+        <v>40811.49</v>
       </c>
       <c r="BQ20" t="s">
         <v>319</v>
@@ -7390,10 +7390,10 @@
         <v>66372</v>
       </c>
       <c r="BS20">
-        <v>58269.45</v>
+        <v>60164.24</v>
       </c>
       <c r="BT20">
-        <v>39882.2</v>
+        <v>44695.55</v>
       </c>
       <c r="BU20" t="s">
         <v>707</v>
@@ -7402,10 +7402,10 @@
         <v>66372</v>
       </c>
       <c r="BW20">
-        <v>57725.41</v>
+        <v>57093.89</v>
       </c>
       <c r="BX20">
-        <v>43713</v>
+        <v>40327.54</v>
       </c>
       <c r="BY20" t="s">
         <v>319</v>
@@ -7414,10 +7414,10 @@
         <v>66372</v>
       </c>
       <c r="CA20">
-        <v>60343.97</v>
+        <v>51584.32</v>
       </c>
       <c r="CB20">
-        <v>56659.49</v>
+        <v>41932.2</v>
       </c>
       <c r="CC20" t="s">
         <v>319</v>
@@ -7426,10 +7426,10 @@
         <v>66372</v>
       </c>
       <c r="CE20">
-        <v>49355.49</v>
+        <v>48642.8</v>
       </c>
       <c r="CF20">
-        <v>31531.07</v>
+        <v>43809.65</v>
       </c>
       <c r="CG20" t="s">
         <v>319</v>
@@ -7438,10 +7438,10 @@
         <v>66372</v>
       </c>
       <c r="CI20">
-        <v>51271.1</v>
+        <v>47057.77</v>
       </c>
       <c r="CJ20">
-        <v>43680.53</v>
+        <v>39620.21</v>
       </c>
       <c r="CK20" t="s">
         <v>319</v>
@@ -7566,10 +7566,10 @@
         <v>91642</v>
       </c>
       <c r="AU21">
-        <v>82931.78</v>
+        <v>74206.66</v>
       </c>
       <c r="AV21">
-        <v>50271.57</v>
+        <v>53446.67</v>
       </c>
       <c r="AW21" t="s">
         <v>319</v>
@@ -7578,10 +7578,10 @@
         <v>91642</v>
       </c>
       <c r="AY21">
-        <v>82144.53999999999</v>
+        <v>78752.8</v>
       </c>
       <c r="AZ21">
-        <v>65616.52</v>
+        <v>63305.38</v>
       </c>
       <c r="BA21" t="s">
         <v>319</v>
@@ -7590,10 +7590,10 @@
         <v>91642</v>
       </c>
       <c r="BC21">
-        <v>59097.16</v>
+        <v>75474.17999999999</v>
       </c>
       <c r="BD21">
-        <v>54571.88</v>
+        <v>59023.14</v>
       </c>
       <c r="BE21" t="s">
         <v>319</v>
@@ -7602,10 +7602,10 @@
         <v>91642</v>
       </c>
       <c r="BG21">
-        <v>59521.03</v>
+        <v>71701.84</v>
       </c>
       <c r="BH21">
-        <v>41541.89</v>
+        <v>55937.04</v>
       </c>
       <c r="BI21" t="s">
         <v>319</v>
@@ -7614,10 +7614,10 @@
         <v>91642</v>
       </c>
       <c r="BK21">
-        <v>58004.6</v>
+        <v>79391.35000000001</v>
       </c>
       <c r="BL21">
-        <v>52641.06</v>
+        <v>60896.49</v>
       </c>
       <c r="BM21" t="s">
         <v>319</v>
@@ -7626,10 +7626,10 @@
         <v>91342</v>
       </c>
       <c r="BO21">
-        <v>77774.96000000001</v>
+        <v>77927.83</v>
       </c>
       <c r="BP21">
-        <v>51280.12</v>
+        <v>66226.17</v>
       </c>
       <c r="BQ21" t="s">
         <v>319</v>
@@ -7638,10 +7638,10 @@
         <v>91342</v>
       </c>
       <c r="BS21">
-        <v>77728.71000000001</v>
+        <v>73368.06</v>
       </c>
       <c r="BT21">
-        <v>48734.38</v>
+        <v>55796.02</v>
       </c>
       <c r="BU21" t="s">
         <v>319</v>
@@ -7650,10 +7650,10 @@
         <v>91342</v>
       </c>
       <c r="BW21">
-        <v>67398.37</v>
+        <v>72723.25</v>
       </c>
       <c r="BX21">
-        <v>54516.53</v>
+        <v>61991.74</v>
       </c>
       <c r="BY21" t="s">
         <v>319</v>
@@ -7662,10 +7662,10 @@
         <v>91342</v>
       </c>
       <c r="CA21">
-        <v>83063.36</v>
+        <v>65132.61</v>
       </c>
       <c r="CB21">
-        <v>78102.19</v>
+        <v>49717.34</v>
       </c>
       <c r="CC21" t="s">
         <v>319</v>
@@ -7674,10 +7674,10 @@
         <v>91342</v>
       </c>
       <c r="CE21">
-        <v>75979.17999999999</v>
+        <v>72489.69</v>
       </c>
       <c r="CF21">
-        <v>54245.77</v>
+        <v>58833.2</v>
       </c>
       <c r="CG21" t="s">
         <v>319</v>
@@ -7686,10 +7686,10 @@
         <v>91342</v>
       </c>
       <c r="CI21">
-        <v>71397.03999999999</v>
+        <v>86774.89999999999</v>
       </c>
       <c r="CJ21">
-        <v>58362.19</v>
+        <v>64334.15</v>
       </c>
       <c r="CK21" t="s">
         <v>319</v>
@@ -7817,10 +7817,10 @@
         <v>1307000</v>
       </c>
       <c r="AU22">
-        <v>1014923.06</v>
+        <v>1171583.55</v>
       </c>
       <c r="AV22">
-        <v>936630.14</v>
+        <v>1004401</v>
       </c>
       <c r="AW22" t="s">
         <v>319</v>
@@ -7829,10 +7829,10 @@
         <v>1307000</v>
       </c>
       <c r="AY22">
-        <v>1213556.53</v>
+        <v>965055.85</v>
       </c>
       <c r="AZ22">
-        <v>790527.59</v>
+        <v>646113.49</v>
       </c>
       <c r="BA22" t="s">
         <v>319</v>
@@ -7841,10 +7841,10 @@
         <v>1307000</v>
       </c>
       <c r="BC22">
-        <v>1059322.34</v>
+        <v>974595.29</v>
       </c>
       <c r="BD22">
-        <v>860297.73</v>
+        <v>887173.91</v>
       </c>
       <c r="BE22" t="s">
         <v>319</v>
@@ -7853,10 +7853,10 @@
         <v>1307000</v>
       </c>
       <c r="BG22">
-        <v>1126289.29</v>
+        <v>1241650</v>
       </c>
       <c r="BH22">
-        <v>811397.14</v>
+        <v>982036.2</v>
       </c>
       <c r="BI22" t="s">
         <v>319</v>
@@ -7865,10 +7865,10 @@
         <v>1307000</v>
       </c>
       <c r="BK22">
-        <v>1126255.9</v>
+        <v>1103666.13</v>
       </c>
       <c r="BL22">
-        <v>774857.15</v>
+        <v>740811.0600000001</v>
       </c>
       <c r="BM22" t="s">
         <v>319</v>
@@ -7877,10 +7877,10 @@
         <v>1307000</v>
       </c>
       <c r="BO22">
-        <v>929149.09</v>
+        <v>1061752.28</v>
       </c>
       <c r="BP22">
-        <v>582395.53</v>
+        <v>926823.8</v>
       </c>
       <c r="BQ22" t="s">
         <v>319</v>
@@ -7889,10 +7889,10 @@
         <v>1307000</v>
       </c>
       <c r="BS22">
-        <v>1074966.69</v>
+        <v>1195023.92</v>
       </c>
       <c r="BT22">
-        <v>999362.5600000001</v>
+        <v>1075186.43</v>
       </c>
       <c r="BU22" t="s">
         <v>708</v>
@@ -7901,10 +7901,10 @@
         <v>1307000</v>
       </c>
       <c r="BW22">
-        <v>1036462.61</v>
+        <v>1152951.5</v>
       </c>
       <c r="BX22">
-        <v>799692.8199999999</v>
+        <v>966603.36</v>
       </c>
       <c r="BY22" t="s">
         <v>723</v>
@@ -7913,10 +7913,10 @@
         <v>1306127</v>
       </c>
       <c r="CA22">
-        <v>1138896.38</v>
+        <v>1028421.21</v>
       </c>
       <c r="CB22">
-        <v>1036970.54</v>
+        <v>977000.15</v>
       </c>
       <c r="CC22" t="s">
         <v>319</v>
@@ -7925,10 +7925,10 @@
         <v>1306127</v>
       </c>
       <c r="CE22">
-        <v>816203.02</v>
+        <v>1040796.81</v>
       </c>
       <c r="CF22">
-        <v>502677.8</v>
+        <v>799908.3199999999</v>
       </c>
       <c r="CG22" t="s">
         <v>319</v>
@@ -7937,10 +7937,10 @@
         <v>1306127</v>
       </c>
       <c r="CI22">
-        <v>965999.51</v>
+        <v>1162712.78</v>
       </c>
       <c r="CJ22">
-        <v>822563.87</v>
+        <v>871727.83</v>
       </c>
       <c r="CK22" t="s">
         <v>319</v>
@@ -8068,10 +8068,10 @@
         <v>182000</v>
       </c>
       <c r="AU23">
-        <v>125843.72</v>
+        <v>167434.29</v>
       </c>
       <c r="AV23">
-        <v>116453.31</v>
+        <v>121248.26</v>
       </c>
       <c r="AW23" t="s">
         <v>319</v>
@@ -8080,10 +8080,10 @@
         <v>182000</v>
       </c>
       <c r="AY23">
-        <v>110857.35</v>
+        <v>121229.18</v>
       </c>
       <c r="AZ23">
-        <v>102077.03</v>
+        <v>94651.03999999999</v>
       </c>
       <c r="BA23" t="s">
         <v>319</v>
@@ -8092,10 +8092,10 @@
         <v>182000</v>
       </c>
       <c r="BC23">
-        <v>146417.71</v>
+        <v>136323.83</v>
       </c>
       <c r="BD23">
-        <v>112058.97</v>
+        <v>115799.02</v>
       </c>
       <c r="BE23" t="s">
         <v>319</v>
@@ -8104,10 +8104,10 @@
         <v>182000</v>
       </c>
       <c r="BG23">
-        <v>122439.08</v>
+        <v>151903.75</v>
       </c>
       <c r="BH23">
-        <v>78110.67</v>
+        <v>105580.54</v>
       </c>
       <c r="BI23" t="s">
         <v>319</v>
@@ -8116,10 +8116,10 @@
         <v>182000</v>
       </c>
       <c r="BK23">
-        <v>160385.81</v>
+        <v>154647.46</v>
       </c>
       <c r="BL23">
-        <v>122727.67</v>
+        <v>128124.72</v>
       </c>
       <c r="BM23" t="s">
         <v>319</v>
@@ -8128,10 +8128,10 @@
         <v>182000</v>
       </c>
       <c r="BO23">
-        <v>163243.15</v>
+        <v>150926.51</v>
       </c>
       <c r="BP23">
-        <v>139356.01</v>
+        <v>125295.25</v>
       </c>
       <c r="BQ23" t="s">
         <v>319</v>
@@ -8140,10 +8140,10 @@
         <v>182000</v>
       </c>
       <c r="BS23">
-        <v>138276.88</v>
+        <v>146159.81</v>
       </c>
       <c r="BT23">
-        <v>103097.55</v>
+        <v>95885.06</v>
       </c>
       <c r="BU23" t="s">
         <v>319</v>
@@ -8152,10 +8152,10 @@
         <v>182000</v>
       </c>
       <c r="BW23">
-        <v>161351.52</v>
+        <v>131087.57</v>
       </c>
       <c r="BX23">
-        <v>106609.01</v>
+        <v>117443.24</v>
       </c>
       <c r="BY23" t="s">
         <v>319</v>
@@ -8164,10 +8164,10 @@
         <v>190000</v>
       </c>
       <c r="CA23">
-        <v>146681.53</v>
+        <v>141848.98</v>
       </c>
       <c r="CB23">
-        <v>105743.25</v>
+        <v>121777.72</v>
       </c>
       <c r="CC23" t="s">
         <v>319</v>
@@ -8176,10 +8176,10 @@
         <v>397201</v>
       </c>
       <c r="CE23">
-        <v>271288.13</v>
+        <v>328098.15</v>
       </c>
       <c r="CF23">
-        <v>226130.23</v>
+        <v>304864.15</v>
       </c>
       <c r="CG23" t="s">
         <v>319</v>
@@ -8188,10 +8188,10 @@
         <v>397201</v>
       </c>
       <c r="CI23">
-        <v>303083.48</v>
+        <v>283903.97</v>
       </c>
       <c r="CJ23">
-        <v>205475.32</v>
+        <v>235673.37</v>
       </c>
       <c r="CK23" t="s">
         <v>319</v>
@@ -8635,10 +8635,10 @@
         <v>98943</v>
       </c>
       <c r="AU26">
-        <v>59659.37</v>
+        <v>84483.98</v>
       </c>
       <c r="AV26">
-        <v>37443.69</v>
+        <v>58197.49</v>
       </c>
       <c r="AW26" t="s">
         <v>319</v>
@@ -8647,10 +8647,10 @@
         <v>98943</v>
       </c>
       <c r="AY26">
-        <v>83566.56</v>
+        <v>73051.2</v>
       </c>
       <c r="AZ26">
-        <v>73748.23</v>
+        <v>63153.48</v>
       </c>
       <c r="BA26" t="s">
         <v>319</v>
@@ -8659,10 +8659,10 @@
         <v>98943</v>
       </c>
       <c r="BC26">
-        <v>68197.95</v>
+        <v>64372.66</v>
       </c>
       <c r="BD26">
-        <v>55551.16</v>
+        <v>47910.44</v>
       </c>
       <c r="BE26" t="s">
         <v>319</v>
@@ -8671,10 +8671,10 @@
         <v>98943</v>
       </c>
       <c r="BG26">
-        <v>71417.2</v>
+        <v>87661.64999999999</v>
       </c>
       <c r="BH26">
-        <v>58932.99</v>
+        <v>72544.03999999999</v>
       </c>
       <c r="BI26" t="s">
         <v>319</v>
@@ -8683,10 +8683,10 @@
         <v>98943</v>
       </c>
       <c r="BK26">
-        <v>90103.19</v>
+        <v>93995.85000000001</v>
       </c>
       <c r="BL26">
-        <v>61870.6</v>
+        <v>75852.69</v>
       </c>
       <c r="BM26" t="s">
         <v>319</v>
@@ -8695,10 +8695,10 @@
         <v>98943</v>
       </c>
       <c r="BO26">
-        <v>74516</v>
+        <v>81918.17</v>
       </c>
       <c r="BP26">
-        <v>55924.66</v>
+        <v>66455.78</v>
       </c>
       <c r="BQ26" t="s">
         <v>319</v>
@@ -8707,10 +8707,10 @@
         <v>98943</v>
       </c>
       <c r="BS26">
-        <v>78084.75999999999</v>
+        <v>81173.35000000001</v>
       </c>
       <c r="BT26">
-        <v>66516.36</v>
+        <v>59760.12</v>
       </c>
       <c r="BU26" t="s">
         <v>319</v>
@@ -8719,10 +8719,10 @@
         <v>98943</v>
       </c>
       <c r="BW26">
-        <v>82956.10000000001</v>
+        <v>61478.94</v>
       </c>
       <c r="BX26">
-        <v>71298.19</v>
+        <v>57496.89</v>
       </c>
       <c r="BY26" t="s">
         <v>319</v>
@@ -8731,10 +8731,10 @@
         <v>17000</v>
       </c>
       <c r="CA26">
-        <v>16148.28</v>
+        <v>13192.46</v>
       </c>
       <c r="CB26">
-        <v>10241.5</v>
+        <v>11588.26</v>
       </c>
       <c r="CC26" t="s">
         <v>319</v>
@@ -8743,10 +8743,10 @@
         <v>397201</v>
       </c>
       <c r="CE26">
-        <v>338168</v>
+        <v>323975.12</v>
       </c>
       <c r="CF26">
-        <v>218101.67</v>
+        <v>286628.42</v>
       </c>
       <c r="CG26" t="s">
         <v>319</v>
@@ -8755,10 +8755,10 @@
         <v>397201</v>
       </c>
       <c r="CI26">
-        <v>351890.52</v>
+        <v>309560.53</v>
       </c>
       <c r="CJ26">
-        <v>305408.69</v>
+        <v>278681.54</v>
       </c>
       <c r="CK26" t="s">
         <v>319</v>
@@ -9044,10 +9044,10 @@
         <v>10000</v>
       </c>
       <c r="AU28">
-        <v>7668.89</v>
+        <v>8123.58</v>
       </c>
       <c r="AV28">
-        <v>4886.87</v>
+        <v>6328.25</v>
       </c>
       <c r="AW28" t="s">
         <v>319</v>
@@ -9056,10 +9056,10 @@
         <v>10000</v>
       </c>
       <c r="AY28">
-        <v>7036.05</v>
+        <v>7451.44</v>
       </c>
       <c r="AZ28">
-        <v>4229.18</v>
+        <v>5516.02</v>
       </c>
       <c r="BA28" t="s">
         <v>319</v>
@@ -9068,10 +9068,10 @@
         <v>10000</v>
       </c>
       <c r="BC28">
-        <v>8515.110000000001</v>
+        <v>6959.67</v>
       </c>
       <c r="BD28">
-        <v>7840.63</v>
+        <v>5693.83</v>
       </c>
       <c r="BE28" t="s">
         <v>319</v>
@@ -9080,10 +9080,10 @@
         <v>10000</v>
       </c>
       <c r="BG28">
-        <v>6886.57</v>
+        <v>7962.99</v>
       </c>
       <c r="BH28">
-        <v>5150.16</v>
+        <v>6489.54</v>
       </c>
       <c r="BI28" t="s">
         <v>319</v>
@@ -9092,10 +9092,10 @@
         <v>10000</v>
       </c>
       <c r="BK28">
-        <v>8803.17</v>
+        <v>9154.91</v>
       </c>
       <c r="BL28">
-        <v>7475.38</v>
+        <v>7408.14</v>
       </c>
       <c r="BM28" t="s">
         <v>319</v>
@@ -9104,10 +9104,10 @@
         <v>10000</v>
       </c>
       <c r="BO28">
-        <v>6582.3</v>
+        <v>7967.67</v>
       </c>
       <c r="BP28">
-        <v>4835.13</v>
+        <v>6298.61</v>
       </c>
       <c r="BQ28" t="s">
         <v>319</v>
@@ -9116,10 +9116,10 @@
         <v>10000</v>
       </c>
       <c r="BS28">
-        <v>7255.93</v>
+        <v>7884.06</v>
       </c>
       <c r="BT28">
-        <v>4353.89</v>
+        <v>6049.96</v>
       </c>
       <c r="BU28" t="s">
         <v>319</v>
@@ -9128,10 +9128,10 @@
         <v>10000</v>
       </c>
       <c r="BW28">
-        <v>9154.559999999999</v>
+        <v>7658.96</v>
       </c>
       <c r="BX28">
-        <v>8520.93</v>
+        <v>6687.85</v>
       </c>
       <c r="BY28" t="s">
         <v>319</v>
@@ -9140,10 +9140,10 @@
         <v>10000</v>
       </c>
       <c r="CA28">
-        <v>9353.700000000001</v>
+        <v>7881.59</v>
       </c>
       <c r="CB28">
-        <v>7022.81</v>
+        <v>6678.29</v>
       </c>
       <c r="CC28" t="s">
         <v>319</v>
@@ -9152,10 +9152,10 @@
         <v>397201</v>
       </c>
       <c r="CE28">
-        <v>257660.03</v>
+        <v>300807.36</v>
       </c>
       <c r="CF28">
-        <v>208093.82</v>
+        <v>285766.99</v>
       </c>
       <c r="CG28" t="s">
         <v>319</v>
@@ -9164,10 +9164,10 @@
         <v>397201</v>
       </c>
       <c r="CI28">
-        <v>325554.5</v>
+        <v>290810.56</v>
       </c>
       <c r="CJ28">
-        <v>254805.49</v>
+        <v>226933.76</v>
       </c>
       <c r="CK28" t="s">
         <v>319</v>
@@ -9295,10 +9295,10 @@
         <v>200000</v>
       </c>
       <c r="AU29">
-        <v>135791.81</v>
+        <v>145860.37</v>
       </c>
       <c r="AV29">
-        <v>95615.60000000001</v>
+        <v>128251.72</v>
       </c>
       <c r="AW29" t="s">
         <v>319</v>
@@ -9307,10 +9307,10 @@
         <v>200000</v>
       </c>
       <c r="AY29">
-        <v>153801.59</v>
+        <v>166697.28</v>
       </c>
       <c r="AZ29">
-        <v>145573.71</v>
+        <v>158362.41</v>
       </c>
       <c r="BA29" t="s">
         <v>319</v>
@@ -9319,10 +9319,10 @@
         <v>200000</v>
       </c>
       <c r="BC29">
-        <v>125050.34</v>
+        <v>144378.08</v>
       </c>
       <c r="BD29">
-        <v>86178.23</v>
+        <v>118762.22</v>
       </c>
       <c r="BE29" t="s">
         <v>319</v>
@@ -9331,10 +9331,10 @@
         <v>200000</v>
       </c>
       <c r="BG29">
-        <v>186667.9</v>
+        <v>145249.5</v>
       </c>
       <c r="BH29">
-        <v>148088.68</v>
+        <v>101270.24</v>
       </c>
       <c r="BI29" t="s">
         <v>319</v>
@@ -9343,10 +9343,10 @@
         <v>200000</v>
       </c>
       <c r="BK29">
-        <v>121010.88</v>
+        <v>142792.57</v>
       </c>
       <c r="BL29">
-        <v>96465.89</v>
+        <v>119469.78</v>
       </c>
       <c r="BM29" t="s">
         <v>692</v>
@@ -9355,10 +9355,10 @@
         <v>300000</v>
       </c>
       <c r="BO29">
-        <v>275216.64</v>
+        <v>231400.62</v>
       </c>
       <c r="BP29">
-        <v>178486.33</v>
+        <v>192958.5</v>
       </c>
       <c r="BQ29" t="s">
         <v>700</v>
@@ -9367,10 +9367,10 @@
         <v>187801</v>
       </c>
       <c r="BS29">
-        <v>145682.8</v>
+        <v>143228.76</v>
       </c>
       <c r="BT29">
-        <v>108788.25</v>
+        <v>104435.02</v>
       </c>
       <c r="BU29" t="s">
         <v>319</v>
@@ -9379,10 +9379,10 @@
         <v>187801</v>
       </c>
       <c r="BW29">
-        <v>146062.79</v>
+        <v>163552.42</v>
       </c>
       <c r="BX29">
-        <v>109806.21</v>
+        <v>126519.11</v>
       </c>
       <c r="BY29" t="s">
         <v>319</v>
@@ -9391,10 +9391,10 @@
         <v>187801</v>
       </c>
       <c r="CA29">
-        <v>114151.86</v>
+        <v>142302.03</v>
       </c>
       <c r="CB29">
-        <v>100574.15</v>
+        <v>105996.44</v>
       </c>
       <c r="CC29" t="s">
         <v>319</v>
@@ -9403,10 +9403,10 @@
         <v>187801</v>
       </c>
       <c r="CE29">
-        <v>175602.05</v>
+        <v>152350.78</v>
       </c>
       <c r="CF29">
-        <v>139343.54</v>
+        <v>121003.1</v>
       </c>
       <c r="CG29" t="s">
         <v>319</v>
@@ -9415,10 +9415,10 @@
         <v>187801</v>
       </c>
       <c r="CI29">
-        <v>126385.12</v>
+        <v>141576.47</v>
       </c>
       <c r="CJ29">
-        <v>114242.53</v>
+        <v>119145.24</v>
       </c>
       <c r="CK29" t="s">
         <v>319</v>
@@ -9546,10 +9546,10 @@
         <v>10000</v>
       </c>
       <c r="AU30">
-        <v>7685.24</v>
+        <v>8393.59</v>
       </c>
       <c r="AV30">
-        <v>5661.56</v>
+        <v>6677.26</v>
       </c>
       <c r="AW30" t="s">
         <v>319</v>
@@ -9558,10 +9558,10 @@
         <v>10000</v>
       </c>
       <c r="AY30">
-        <v>9176.379999999999</v>
+        <v>6771.63</v>
       </c>
       <c r="AZ30">
-        <v>5737.15</v>
+        <v>5211.28</v>
       </c>
       <c r="BA30" t="s">
         <v>319</v>
@@ -9570,10 +9570,10 @@
         <v>10000</v>
       </c>
       <c r="BC30">
-        <v>8718.4</v>
+        <v>7575.65</v>
       </c>
       <c r="BD30">
-        <v>7596.37</v>
+        <v>5768.33</v>
       </c>
       <c r="BE30" t="s">
         <v>319</v>
@@ -9582,10 +9582,10 @@
         <v>10000</v>
       </c>
       <c r="BG30">
-        <v>7861.79</v>
+        <v>9500</v>
       </c>
       <c r="BH30">
-        <v>5845.08</v>
+        <v>7654.61</v>
       </c>
       <c r="BI30" t="s">
         <v>319</v>
@@ -9594,10 +9594,10 @@
         <v>10000</v>
       </c>
       <c r="BK30">
-        <v>8504.370000000001</v>
+        <v>8017.61</v>
       </c>
       <c r="BL30">
-        <v>5568.18</v>
+        <v>5868.22</v>
       </c>
       <c r="BM30" t="s">
         <v>319</v>
@@ -9606,10 +9606,10 @@
         <v>10000</v>
       </c>
       <c r="BO30">
-        <v>8677.6</v>
+        <v>7125.9</v>
       </c>
       <c r="BP30">
-        <v>5349.84</v>
+        <v>5948.93</v>
       </c>
       <c r="BQ30" t="s">
         <v>319</v>
@@ -9618,10 +9618,10 @@
         <v>10000</v>
       </c>
       <c r="BS30">
-        <v>7864.46</v>
+        <v>9415.18</v>
       </c>
       <c r="BT30">
-        <v>6687.62</v>
+        <v>8597.42</v>
       </c>
       <c r="BU30" t="s">
         <v>709</v>
@@ -9630,10 +9630,10 @@
         <v>1307000</v>
       </c>
       <c r="BW30">
-        <v>1014712.97</v>
+        <v>1222929.72</v>
       </c>
       <c r="BX30">
-        <v>869002.97</v>
+        <v>1018257.63</v>
       </c>
       <c r="BY30" t="s">
         <v>319</v>
@@ -9642,10 +9642,10 @@
         <v>1306127</v>
       </c>
       <c r="CA30">
-        <v>986747.39</v>
+        <v>1039644.28</v>
       </c>
       <c r="CB30">
-        <v>867883.9399999999</v>
+        <v>915895.2</v>
       </c>
       <c r="CC30" t="s">
         <v>319</v>
@@ -9654,10 +9654,10 @@
         <v>1306127</v>
       </c>
       <c r="CE30">
-        <v>1109045.16</v>
+        <v>1071310.08</v>
       </c>
       <c r="CF30">
-        <v>888783.9</v>
+        <v>935956.5</v>
       </c>
       <c r="CG30" t="s">
         <v>319</v>
@@ -9666,10 +9666,10 @@
         <v>1306127</v>
       </c>
       <c r="CI30">
-        <v>828107.14</v>
+        <v>1107879.06</v>
       </c>
       <c r="CJ30">
-        <v>607925.3100000001</v>
+        <v>936551.23</v>
       </c>
       <c r="CK30" t="s">
         <v>319</v>
@@ -9794,10 +9794,10 @@
         <v>45759</v>
       </c>
       <c r="AU31">
-        <v>42224.19</v>
+        <v>35046.24</v>
       </c>
       <c r="AV31">
-        <v>38428.45</v>
+        <v>32530.03</v>
       </c>
       <c r="AW31" t="s">
         <v>319</v>
@@ -9806,10 +9806,10 @@
         <v>45759</v>
       </c>
       <c r="AY31">
-        <v>30462.88</v>
+        <v>38390.52</v>
       </c>
       <c r="AZ31">
-        <v>21596.04</v>
+        <v>28746.24</v>
       </c>
       <c r="BA31" t="s">
         <v>319</v>
@@ -9818,10 +9818,10 @@
         <v>45759</v>
       </c>
       <c r="BC31">
-        <v>30851.27</v>
+        <v>35305.9</v>
       </c>
       <c r="BD31">
-        <v>20505.33</v>
+        <v>25611.2</v>
       </c>
       <c r="BE31" t="s">
         <v>319</v>
@@ -9830,10 +9830,10 @@
         <v>45759</v>
       </c>
       <c r="BG31">
-        <v>36373.55</v>
+        <v>43471.05</v>
       </c>
       <c r="BH31">
-        <v>34358.4</v>
+        <v>33867.96</v>
       </c>
       <c r="BI31" t="s">
         <v>319</v>
@@ -9842,10 +9842,10 @@
         <v>45759</v>
       </c>
       <c r="BK31">
-        <v>35974.11</v>
+        <v>32415.5</v>
       </c>
       <c r="BL31">
-        <v>25413.09</v>
+        <v>24639.51</v>
       </c>
       <c r="BM31" t="s">
         <v>319</v>
@@ -9854,10 +9854,10 @@
         <v>45759</v>
       </c>
       <c r="BO31">
-        <v>32447.15</v>
+        <v>36429.86</v>
       </c>
       <c r="BP31">
-        <v>29086.54</v>
+        <v>29042.82</v>
       </c>
       <c r="BQ31" t="s">
         <v>319</v>
@@ -9866,10 +9866,10 @@
         <v>45759</v>
       </c>
       <c r="BS31">
-        <v>31994.09</v>
+        <v>34848.21</v>
       </c>
       <c r="BT31">
-        <v>24854.32</v>
+        <v>26291.43</v>
       </c>
       <c r="BU31" t="s">
         <v>710</v>
@@ -9878,10 +9878,10 @@
         <v>30000</v>
       </c>
       <c r="BW31">
-        <v>18180.3</v>
+        <v>25312.23</v>
       </c>
       <c r="BX31">
-        <v>12016.28</v>
+        <v>20550.4</v>
       </c>
       <c r="BY31" t="s">
         <v>724</v>
@@ -9890,10 +9890,10 @@
         <v>61289.65</v>
       </c>
       <c r="CA31">
-        <v>37735.17</v>
+        <v>50342.3</v>
       </c>
       <c r="CB31">
-        <v>35506.96</v>
+        <v>36712.49</v>
       </c>
       <c r="CC31" t="s">
         <v>319</v>
@@ -9902,10 +9902,10 @@
         <v>65977.50999999999</v>
       </c>
       <c r="CE31">
-        <v>42007.39</v>
+        <v>43797.34</v>
       </c>
       <c r="CF31">
-        <v>39119.9</v>
+        <v>38827.41</v>
       </c>
       <c r="CG31" t="s">
         <v>319</v>
@@ -9914,10 +9914,10 @@
         <v>65971.14</v>
       </c>
       <c r="CI31">
-        <v>59268.23</v>
+        <v>52562.28</v>
       </c>
       <c r="CJ31">
-        <v>47915.3</v>
+        <v>48597.15</v>
       </c>
       <c r="CK31" t="s">
         <v>319</v>
@@ -10045,10 +10045,10 @@
         <v>308863</v>
       </c>
       <c r="AU32">
-        <v>266185.8</v>
+        <v>252094.17</v>
       </c>
       <c r="AV32">
-        <v>221135.96</v>
+        <v>232339</v>
       </c>
       <c r="AW32" t="s">
         <v>319</v>
@@ -10057,10 +10057,10 @@
         <v>308863</v>
       </c>
       <c r="AY32">
-        <v>275085.79</v>
+        <v>212325.06</v>
       </c>
       <c r="AZ32">
-        <v>244455</v>
+        <v>161826.77</v>
       </c>
       <c r="BA32" t="s">
         <v>319</v>
@@ -10069,10 +10069,10 @@
         <v>308863</v>
       </c>
       <c r="BC32">
-        <v>225006.41</v>
+        <v>254077.84</v>
       </c>
       <c r="BD32">
-        <v>139958.57</v>
+        <v>182130.88</v>
       </c>
       <c r="BE32" t="s">
         <v>319</v>
@@ -10081,10 +10081,10 @@
         <v>308863</v>
       </c>
       <c r="BG32">
-        <v>212754.85</v>
+        <v>265217.34</v>
       </c>
       <c r="BH32">
-        <v>197792.81</v>
+        <v>217820.49</v>
       </c>
       <c r="BI32" t="s">
         <v>319</v>
@@ -10093,10 +10093,10 @@
         <v>77506</v>
       </c>
       <c r="BK32">
-        <v>65390.92</v>
+        <v>58774.86</v>
       </c>
       <c r="BL32">
-        <v>51596.64</v>
+        <v>48614.04</v>
       </c>
       <c r="BM32" t="s">
         <v>319</v>
@@ -10105,10 +10105,10 @@
         <v>77506</v>
       </c>
       <c r="BO32">
-        <v>58574.72</v>
+        <v>68790.16</v>
       </c>
       <c r="BP32">
-        <v>49550.87</v>
+        <v>50639.35</v>
       </c>
       <c r="BQ32" t="s">
         <v>319</v>
@@ -10117,10 +10117,10 @@
         <v>77506</v>
       </c>
       <c r="BS32">
-        <v>53377.3</v>
+        <v>66759.02</v>
       </c>
       <c r="BT32">
-        <v>40607.92</v>
+        <v>55191.82</v>
       </c>
       <c r="BU32" t="s">
         <v>319</v>
@@ -10129,10 +10129,10 @@
         <v>77506</v>
       </c>
       <c r="BW32">
-        <v>71125.96000000001</v>
+        <v>69794.06</v>
       </c>
       <c r="BX32">
-        <v>47540.74</v>
+        <v>55462.12</v>
       </c>
       <c r="BY32" t="s">
         <v>319</v>
@@ -10141,10 +10141,10 @@
         <v>77506</v>
       </c>
       <c r="CA32">
-        <v>64706.91</v>
+        <v>64242.99</v>
       </c>
       <c r="CB32">
-        <v>39911.14</v>
+        <v>44708.03</v>
       </c>
       <c r="CC32" t="s">
         <v>319</v>
@@ -10153,10 +10153,10 @@
         <v>77506</v>
       </c>
       <c r="CE32">
-        <v>48456.34</v>
+        <v>65876.11</v>
       </c>
       <c r="CF32">
-        <v>41960.99</v>
+        <v>51243.16</v>
       </c>
       <c r="CG32" t="s">
         <v>319</v>
@@ -10165,10 +10165,10 @@
         <v>77506</v>
       </c>
       <c r="CI32">
-        <v>58402.09</v>
+        <v>64941.49</v>
       </c>
       <c r="CJ32">
-        <v>51217.25</v>
+        <v>60751.07</v>
       </c>
       <c r="CK32" t="s">
         <v>319</v>
@@ -10296,10 +10296,10 @@
         <v>2263741</v>
       </c>
       <c r="AU33">
-        <v>1520145.93</v>
+        <v>1845166.35</v>
       </c>
       <c r="AV33">
-        <v>1232289.87</v>
+        <v>1712813.44</v>
       </c>
       <c r="AW33" t="s">
         <v>319</v>
@@ -10308,10 +10308,10 @@
         <v>2263741</v>
       </c>
       <c r="AY33">
-        <v>1504825.4</v>
+        <v>1542946.12</v>
       </c>
       <c r="AZ33">
-        <v>1183662.59</v>
+        <v>1195790.58</v>
       </c>
       <c r="BA33" t="s">
         <v>319</v>
@@ -10320,10 +10320,10 @@
         <v>2263741</v>
       </c>
       <c r="BC33">
-        <v>1936916.28</v>
+        <v>1843426.83</v>
       </c>
       <c r="BD33">
-        <v>1616226.97</v>
+        <v>1411084.4</v>
       </c>
       <c r="BE33" t="s">
         <v>319</v>
@@ -10332,10 +10332,10 @@
         <v>2263741</v>
       </c>
       <c r="BG33">
-        <v>1476354.93</v>
+        <v>1748352.02</v>
       </c>
       <c r="BH33">
-        <v>943223.79</v>
+        <v>1566751.61</v>
       </c>
       <c r="BI33" t="s">
         <v>319</v>
@@ -10344,10 +10344,10 @@
         <v>2020505</v>
       </c>
       <c r="BK33">
-        <v>1651783.64</v>
+        <v>1543905.05</v>
       </c>
       <c r="BL33">
-        <v>1033007.22</v>
+        <v>1284288.55</v>
       </c>
       <c r="BM33" t="s">
         <v>319</v>
@@ -10356,10 +10356,10 @@
         <v>297483</v>
       </c>
       <c r="BO33">
-        <v>189270.47</v>
+        <v>239090.16</v>
       </c>
       <c r="BP33">
-        <v>158835.59</v>
+        <v>197350.19</v>
       </c>
       <c r="BQ33" t="s">
         <v>319</v>
@@ -10368,10 +10368,10 @@
         <v>297483</v>
       </c>
       <c r="BS33">
-        <v>214362.88</v>
+        <v>258813.16</v>
       </c>
       <c r="BT33">
-        <v>156305.79</v>
+        <v>234147.59</v>
       </c>
       <c r="BU33" t="s">
         <v>319</v>
@@ -10380,10 +10380,10 @@
         <v>297483</v>
       </c>
       <c r="BW33">
-        <v>202279.27</v>
+        <v>263610.87</v>
       </c>
       <c r="BX33">
-        <v>187879.52</v>
+        <v>185642.97</v>
       </c>
       <c r="BY33" t="s">
         <v>319</v>
@@ -10392,10 +10392,10 @@
         <v>297483</v>
       </c>
       <c r="CA33">
-        <v>178973.62</v>
+        <v>236383.73</v>
       </c>
       <c r="CB33">
-        <v>144592.89</v>
+        <v>183143.74</v>
       </c>
       <c r="CC33" t="s">
         <v>319</v>
@@ -10404,10 +10404,10 @@
         <v>297483</v>
       </c>
       <c r="CE33">
-        <v>280459.02</v>
+        <v>251013.51</v>
       </c>
       <c r="CF33">
-        <v>199588.39</v>
+        <v>198664.94</v>
       </c>
       <c r="CG33" t="s">
         <v>319</v>
@@ -10416,10 +10416,10 @@
         <v>297483</v>
       </c>
       <c r="CI33">
-        <v>281517.06</v>
+        <v>272732.23</v>
       </c>
       <c r="CJ33">
-        <v>187514.2</v>
+        <v>243590.64</v>
       </c>
       <c r="CK33" t="s">
         <v>319</v>
@@ -10547,10 +10547,10 @@
         <v>198400</v>
       </c>
       <c r="AU34">
-        <v>129252.04</v>
+        <v>159485.34</v>
       </c>
       <c r="AV34">
-        <v>98031.42999999999</v>
+        <v>137050.76</v>
       </c>
       <c r="AW34" t="s">
         <v>319</v>
@@ -10559,10 +10559,10 @@
         <v>198400</v>
       </c>
       <c r="AY34">
-        <v>153884.64</v>
+        <v>145685.25</v>
       </c>
       <c r="AZ34">
-        <v>114643.78</v>
+        <v>125331.05</v>
       </c>
       <c r="BA34" t="s">
         <v>319</v>
@@ -10571,10 +10571,10 @@
         <v>198400</v>
       </c>
       <c r="BC34">
-        <v>178669.9</v>
+        <v>164100.78</v>
       </c>
       <c r="BD34">
-        <v>134094.83</v>
+        <v>123483.03</v>
       </c>
       <c r="BE34" t="s">
         <v>319</v>
@@ -10583,10 +10583,10 @@
         <v>198400</v>
       </c>
       <c r="BG34">
-        <v>164500.25</v>
+        <v>166519.32</v>
       </c>
       <c r="BH34">
-        <v>113161.8</v>
+        <v>131585.15</v>
       </c>
       <c r="BI34" t="s">
         <v>319</v>
@@ -10595,10 +10595,10 @@
         <v>198400</v>
       </c>
       <c r="BK34">
-        <v>128608.49</v>
+        <v>154450.32</v>
       </c>
       <c r="BL34">
-        <v>102016.27</v>
+        <v>145980.76</v>
       </c>
       <c r="BM34" t="s">
         <v>319</v>
@@ -10607,10 +10607,10 @@
         <v>198400</v>
       </c>
       <c r="BO34">
-        <v>175912.79</v>
+        <v>161910.03</v>
       </c>
       <c r="BP34">
-        <v>155126.24</v>
+        <v>141360.03</v>
       </c>
       <c r="BQ34" t="s">
         <v>319</v>
@@ -10619,10 +10619,10 @@
         <v>198400</v>
       </c>
       <c r="BS34">
-        <v>159270.83</v>
+        <v>163313.59</v>
       </c>
       <c r="BT34">
-        <v>134004.72</v>
+        <v>150139.19</v>
       </c>
       <c r="BU34" t="s">
         <v>319</v>
@@ -10631,10 +10631,10 @@
         <v>198400</v>
       </c>
       <c r="BW34">
-        <v>139474.83</v>
+        <v>175830.28</v>
       </c>
       <c r="BX34">
-        <v>97863.21000000001</v>
+        <v>137219.46</v>
       </c>
       <c r="BY34" t="s">
         <v>319</v>
@@ -10643,10 +10643,10 @@
         <v>198400</v>
       </c>
       <c r="CA34">
-        <v>186848.11</v>
+        <v>163280.27</v>
       </c>
       <c r="CB34">
-        <v>146376.78</v>
+        <v>132054.42</v>
       </c>
       <c r="CC34" t="s">
         <v>319</v>
@@ -10655,10 +10655,10 @@
         <v>198400</v>
       </c>
       <c r="CE34">
-        <v>130958</v>
+        <v>177700.12</v>
       </c>
       <c r="CF34">
-        <v>104525.57</v>
+        <v>136113.14</v>
       </c>
       <c r="CG34" t="s">
         <v>319</v>
@@ -10667,10 +10667,10 @@
         <v>198400</v>
       </c>
       <c r="CI34">
-        <v>122562.9</v>
+        <v>183492.55</v>
       </c>
       <c r="CJ34">
-        <v>93398.53999999999</v>
+        <v>173883.59</v>
       </c>
       <c r="CK34" t="s">
         <v>319</v>
@@ -10801,10 +10801,10 @@
         <v>308194</v>
       </c>
       <c r="AU35">
-        <v>234700</v>
+        <v>218403.66</v>
       </c>
       <c r="AV35">
-        <v>197476.22</v>
+        <v>184040.58</v>
       </c>
       <c r="AW35" t="s">
         <v>319</v>
@@ -10813,10 +10813,10 @@
         <v>308194</v>
       </c>
       <c r="AY35">
-        <v>242725.01</v>
+        <v>207765.36</v>
       </c>
       <c r="AZ35">
-        <v>170508.52</v>
+        <v>154176.23</v>
       </c>
       <c r="BA35" t="s">
         <v>319</v>
@@ -10825,10 +10825,10 @@
         <v>308194</v>
       </c>
       <c r="BC35">
-        <v>253599.78</v>
+        <v>265220.35</v>
       </c>
       <c r="BD35">
-        <v>236832.35</v>
+        <v>215666.49</v>
       </c>
       <c r="BE35" t="s">
         <v>319</v>
@@ -10837,10 +10837,10 @@
         <v>308194</v>
       </c>
       <c r="BG35">
-        <v>232852.06</v>
+        <v>272987.97</v>
       </c>
       <c r="BH35">
-        <v>199176.8</v>
+        <v>217082.18</v>
       </c>
       <c r="BI35" t="s">
         <v>319</v>
@@ -10849,10 +10849,10 @@
         <v>1508931</v>
       </c>
       <c r="BK35">
-        <v>1001040.68</v>
+        <v>1010545.36</v>
       </c>
       <c r="BL35">
-        <v>775347.96</v>
+        <v>960018.09</v>
       </c>
       <c r="BM35" t="s">
         <v>319</v>
@@ -10861,10 +10861,10 @@
         <v>1508930</v>
       </c>
       <c r="BO35">
-        <v>1137136.31</v>
+        <v>1234784.44</v>
       </c>
       <c r="BP35">
-        <v>1042127.91</v>
+        <v>992643.15</v>
       </c>
       <c r="BQ35" t="s">
         <v>319</v>
@@ -10873,10 +10873,10 @@
         <v>1508930</v>
       </c>
       <c r="BS35">
-        <v>912043.28</v>
+        <v>1251967.63</v>
       </c>
       <c r="BT35">
-        <v>827063.13</v>
+        <v>1189369.25</v>
       </c>
       <c r="BU35" t="s">
         <v>319</v>
@@ -10885,10 +10885,10 @@
         <v>1508930</v>
       </c>
       <c r="BW35">
-        <v>1393192.2</v>
+        <v>1255909.98</v>
       </c>
       <c r="BX35">
-        <v>1018811.78</v>
+        <v>966463.33</v>
       </c>
       <c r="BY35" t="s">
         <v>319</v>
@@ -10897,10 +10897,10 @@
         <v>1508930</v>
       </c>
       <c r="CA35">
-        <v>1092258.65</v>
+        <v>1144652.17</v>
       </c>
       <c r="CB35">
-        <v>1014297.68</v>
+        <v>781858.4300000001</v>
       </c>
       <c r="CC35" t="s">
         <v>319</v>
@@ -10909,10 +10909,10 @@
         <v>1508930</v>
       </c>
       <c r="CE35">
-        <v>1325252.93</v>
+        <v>1317075.81</v>
       </c>
       <c r="CF35">
-        <v>1235554.86</v>
+        <v>1119437.68</v>
       </c>
       <c r="CG35" t="s">
         <v>319</v>
@@ -10921,10 +10921,10 @@
         <v>1508930</v>
       </c>
       <c r="CI35">
-        <v>1057139.21</v>
+        <v>1365282.73</v>
       </c>
       <c r="CJ35">
-        <v>880980.74</v>
+        <v>1250990.82</v>
       </c>
       <c r="CK35" t="s">
         <v>319</v>
@@ -11052,10 +11052,10 @@
         <v>96078</v>
       </c>
       <c r="AU36">
-        <v>85729.86</v>
+        <v>76770.42999999999</v>
       </c>
       <c r="AV36">
-        <v>61054.73</v>
+        <v>71884.50999999999</v>
       </c>
       <c r="AW36" t="s">
         <v>319</v>
@@ -11064,10 +11064,10 @@
         <v>96078</v>
       </c>
       <c r="AY36">
-        <v>75521.36</v>
+        <v>70308.34</v>
       </c>
       <c r="AZ36">
-        <v>63435.14</v>
+        <v>50071.34</v>
       </c>
       <c r="BA36" t="s">
         <v>319</v>
@@ -11076,10 +11076,10 @@
         <v>96078</v>
       </c>
       <c r="BC36">
-        <v>89888.73</v>
+        <v>82591.38</v>
       </c>
       <c r="BD36">
-        <v>56169.41</v>
+        <v>65685.44</v>
       </c>
       <c r="BE36" t="s">
         <v>319</v>
@@ -11088,10 +11088,10 @@
         <v>96078</v>
       </c>
       <c r="BG36">
-        <v>75632.08</v>
+        <v>88471.66</v>
       </c>
       <c r="BH36">
-        <v>45743.21</v>
+        <v>69585.67999999999</v>
       </c>
       <c r="BI36" t="s">
         <v>319</v>
@@ -11100,10 +11100,10 @@
         <v>96078</v>
       </c>
       <c r="BK36">
-        <v>80850.62</v>
+        <v>69363.2</v>
       </c>
       <c r="BL36">
-        <v>71425.06</v>
+        <v>63462.39</v>
       </c>
       <c r="BM36" t="s">
         <v>319</v>
@@ -11112,10 +11112,10 @@
         <v>219121</v>
       </c>
       <c r="BO36">
-        <v>175568.78</v>
+        <v>191410.15</v>
       </c>
       <c r="BP36">
-        <v>155598.73</v>
+        <v>141066.34</v>
       </c>
       <c r="BQ36" t="s">
         <v>319</v>
@@ -11124,10 +11124,10 @@
         <v>219120</v>
       </c>
       <c r="BS36">
-        <v>159413.61</v>
+        <v>198623.98</v>
       </c>
       <c r="BT36">
-        <v>131558.25</v>
+        <v>166714.41</v>
       </c>
       <c r="BU36" t="s">
         <v>319</v>
@@ -11136,10 +11136,10 @@
         <v>219120</v>
       </c>
       <c r="BW36">
-        <v>169353.4</v>
+        <v>197523</v>
       </c>
       <c r="BX36">
-        <v>134829.45</v>
+        <v>150579.63</v>
       </c>
       <c r="BY36" t="s">
         <v>319</v>
@@ -11148,10 +11148,10 @@
         <v>219120</v>
       </c>
       <c r="CA36">
-        <v>206933.37</v>
+        <v>189838.99</v>
       </c>
       <c r="CB36">
-        <v>180977.65</v>
+        <v>142730.4</v>
       </c>
       <c r="CC36" t="s">
         <v>319</v>
@@ -11160,10 +11160,10 @@
         <v>219120</v>
       </c>
       <c r="CE36">
-        <v>184671.27</v>
+        <v>195559.01</v>
       </c>
       <c r="CF36">
-        <v>132511.9</v>
+        <v>166908.7</v>
       </c>
       <c r="CG36" t="s">
         <v>319</v>
@@ -11172,10 +11172,10 @@
         <v>219120</v>
       </c>
       <c r="CI36">
-        <v>169377.66</v>
+        <v>201982.28</v>
       </c>
       <c r="CJ36">
-        <v>131208.58</v>
+        <v>162798.08</v>
       </c>
       <c r="CK36" t="s">
         <v>319</v>
@@ -11300,10 +11300,10 @@
         <v>67629.28999999999</v>
       </c>
       <c r="AU37">
-        <v>41552.35</v>
+        <v>50741.02</v>
       </c>
       <c r="AV37">
-        <v>25614.52</v>
+        <v>40557.83</v>
       </c>
       <c r="AW37" t="s">
         <v>319</v>
@@ -11312,10 +11312,10 @@
         <v>67629.28999999999</v>
       </c>
       <c r="AY37">
-        <v>42057.04</v>
+        <v>53237.86</v>
       </c>
       <c r="AZ37">
-        <v>39472.93</v>
+        <v>45133.06</v>
       </c>
       <c r="BA37" t="s">
         <v>319</v>
@@ -11324,10 +11324,10 @@
         <v>67629.28999999999</v>
       </c>
       <c r="BC37">
-        <v>40622.18</v>
+        <v>51618.14</v>
       </c>
       <c r="BD37">
-        <v>38022.14</v>
+        <v>37486.37</v>
       </c>
       <c r="BE37" t="s">
         <v>319</v>
@@ -11336,10 +11336,10 @@
         <v>67629.28999999999</v>
       </c>
       <c r="BG37">
-        <v>47816.96</v>
+        <v>56136.79</v>
       </c>
       <c r="BH37">
-        <v>29772.77</v>
+        <v>42562.84</v>
       </c>
       <c r="BI37" t="s">
         <v>319</v>
@@ -11348,10 +11348,10 @@
         <v>70338.11</v>
       </c>
       <c r="BK37">
-        <v>45723.46</v>
+        <v>46359.8</v>
       </c>
       <c r="BL37">
-        <v>39306.52</v>
+        <v>36618.86</v>
       </c>
       <c r="BM37" t="s">
         <v>319</v>
@@ -11360,10 +11360,10 @@
         <v>66501.25999999999</v>
       </c>
       <c r="BO37">
-        <v>44869.12</v>
+        <v>47765.18</v>
       </c>
       <c r="BP37">
-        <v>30223.13</v>
+        <v>31616.77</v>
       </c>
       <c r="BQ37" t="s">
         <v>319</v>
@@ -11372,10 +11372,10 @@
         <v>54685.82</v>
       </c>
       <c r="BS37">
-        <v>35154.09</v>
+        <v>44396.3</v>
       </c>
       <c r="BT37">
-        <v>28123.61</v>
+        <v>36400.88</v>
       </c>
       <c r="BU37" t="s">
         <v>711</v>
@@ -11384,10 +11384,10 @@
         <v>97790</v>
       </c>
       <c r="BW37">
-        <v>88392.27</v>
+        <v>90718.85000000001</v>
       </c>
       <c r="BX37">
-        <v>55435.21</v>
+        <v>78942.75999999999</v>
       </c>
       <c r="BY37" t="s">
         <v>725</v>
@@ -11396,10 +11396,10 @@
         <v>537421</v>
       </c>
       <c r="CA37">
-        <v>457490.46</v>
+        <v>463486.75</v>
       </c>
       <c r="CB37">
-        <v>274824.72</v>
+        <v>370356.58</v>
       </c>
       <c r="CC37" t="s">
         <v>319</v>
@@ -11408,10 +11408,10 @@
         <v>2064716</v>
       </c>
       <c r="CE37">
-        <v>1596069.15</v>
+        <v>1655989.55</v>
       </c>
       <c r="CF37">
-        <v>1382866.56</v>
+        <v>1271751.56</v>
       </c>
       <c r="CG37" t="s">
         <v>319</v>
@@ -11420,10 +11420,10 @@
         <v>2061338</v>
       </c>
       <c r="CI37">
-        <v>1492911.08</v>
+        <v>1592501.49</v>
       </c>
       <c r="CJ37">
-        <v>1005827.29</v>
+        <v>1154258.26</v>
       </c>
       <c r="CK37" t="s">
         <v>319</v>
@@ -11551,10 +11551,10 @@
         <v>51662</v>
       </c>
       <c r="AU38">
-        <v>46815.51</v>
+        <v>41393.98</v>
       </c>
       <c r="AV38">
-        <v>36057.96</v>
+        <v>30982.51</v>
       </c>
       <c r="AW38" t="s">
         <v>319</v>
@@ -11563,10 +11563,10 @@
         <v>51662</v>
       </c>
       <c r="AY38">
-        <v>33986.17</v>
+        <v>46356.64</v>
       </c>
       <c r="AZ38">
-        <v>24677.51</v>
+        <v>34025.9</v>
       </c>
       <c r="BA38" t="s">
         <v>319</v>
@@ -11575,10 +11575,10 @@
         <v>51662</v>
       </c>
       <c r="BC38">
-        <v>40676.63</v>
+        <v>41865.93</v>
       </c>
       <c r="BD38">
-        <v>34377.45</v>
+        <v>30398.46</v>
       </c>
       <c r="BE38" t="s">
         <v>319</v>
@@ -11587,10 +11587,10 @@
         <v>51662</v>
       </c>
       <c r="BG38">
-        <v>47742.93</v>
+        <v>33233.51</v>
       </c>
       <c r="BH38">
-        <v>41924.36</v>
+        <v>29896.75</v>
       </c>
       <c r="BI38" t="s">
         <v>319</v>
@@ -11599,10 +11599,10 @@
         <v>51662</v>
       </c>
       <c r="BK38">
-        <v>37564.22</v>
+        <v>42019.17</v>
       </c>
       <c r="BL38">
-        <v>31464.79</v>
+        <v>30735.37</v>
       </c>
       <c r="BM38" t="s">
         <v>319</v>
@@ -11611,10 +11611,10 @@
         <v>51662</v>
       </c>
       <c r="BO38">
-        <v>44637.35</v>
+        <v>31920.04</v>
       </c>
       <c r="BP38">
-        <v>36884.84</v>
+        <v>24564.38</v>
       </c>
       <c r="BQ38" t="s">
         <v>319</v>
@@ -11623,10 +11623,10 @@
         <v>51662</v>
       </c>
       <c r="BS38">
-        <v>43264.9</v>
+        <v>43401.15</v>
       </c>
       <c r="BT38">
-        <v>28342.98</v>
+        <v>32469.87</v>
       </c>
       <c r="BU38" t="s">
         <v>319</v>
@@ -11635,10 +11635,10 @@
         <v>51662</v>
       </c>
       <c r="BW38">
-        <v>35713.92</v>
+        <v>41355.94</v>
       </c>
       <c r="BX38">
-        <v>28765.88</v>
+        <v>28073.79</v>
       </c>
       <c r="BY38" t="s">
         <v>319</v>
@@ -11647,10 +11647,10 @@
         <v>51662</v>
       </c>
       <c r="CA38">
-        <v>36669.12</v>
+        <v>48082.12</v>
       </c>
       <c r="CB38">
-        <v>33875.36</v>
+        <v>37337.21</v>
       </c>
       <c r="CC38" t="s">
         <v>319</v>
@@ -11659,10 +11659,10 @@
         <v>51662</v>
       </c>
       <c r="CE38">
-        <v>45244.36</v>
+        <v>36879.45</v>
       </c>
       <c r="CF38">
-        <v>28325.37</v>
+        <v>30074.96</v>
       </c>
       <c r="CG38" t="s">
         <v>319</v>
@@ -11671,10 +11671,10 @@
         <v>51662</v>
       </c>
       <c r="CI38">
-        <v>34856.82</v>
+        <v>43526.87</v>
       </c>
       <c r="CJ38">
-        <v>25635.09</v>
+        <v>39231.84</v>
       </c>
       <c r="CK38" t="s">
         <v>319</v>
@@ -11808,10 +11808,10 @@
         <v>1156425</v>
       </c>
       <c r="AU39">
-        <v>794237.78</v>
+        <v>924465.03</v>
       </c>
       <c r="AV39">
-        <v>485517.84</v>
+        <v>878241.78</v>
       </c>
       <c r="AW39" t="s">
         <v>319</v>
@@ -11820,10 +11820,10 @@
         <v>1156425</v>
       </c>
       <c r="AY39">
-        <v>884340.84</v>
+        <v>987077.29</v>
       </c>
       <c r="AZ39">
-        <v>543289.98</v>
+        <v>744588.11</v>
       </c>
       <c r="BA39" t="s">
         <v>319</v>
@@ -11832,10 +11832,10 @@
         <v>1156425</v>
       </c>
       <c r="BC39">
-        <v>1063227.56</v>
+        <v>1030765.14</v>
       </c>
       <c r="BD39">
-        <v>799126.2</v>
+        <v>801574.04</v>
       </c>
       <c r="BE39" t="s">
         <v>319</v>
@@ -11844,10 +11844,10 @@
         <v>1156425</v>
       </c>
       <c r="BG39">
-        <v>1092063.69</v>
+        <v>977017.6</v>
       </c>
       <c r="BH39">
-        <v>993546.8</v>
+        <v>690093.7</v>
       </c>
       <c r="BI39" t="s">
         <v>319</v>
@@ -11856,10 +11856,10 @@
         <v>1156425</v>
       </c>
       <c r="BK39">
-        <v>752658.77</v>
+        <v>1098603.75</v>
       </c>
       <c r="BL39">
-        <v>587308.15</v>
+        <v>888228.46</v>
       </c>
       <c r="BM39" t="s">
         <v>319</v>
@@ -11868,10 +11868,10 @@
         <v>1156425</v>
       </c>
       <c r="BO39">
-        <v>967590.58</v>
+        <v>902393.28</v>
       </c>
       <c r="BP39">
-        <v>660670.46</v>
+        <v>753753.4399999999</v>
       </c>
       <c r="BQ39" t="s">
         <v>701</v>
@@ -11880,10 +11880,10 @@
         <v>601040</v>
       </c>
       <c r="BS39">
-        <v>552508.53</v>
+        <v>446427.36</v>
       </c>
       <c r="BT39">
-        <v>477982.45</v>
+        <v>383262.64</v>
       </c>
       <c r="BU39" t="s">
         <v>712</v>
@@ -11892,10 +11892,10 @@
         <v>370796</v>
       </c>
       <c r="BW39">
-        <v>278881.04</v>
+        <v>273020.4</v>
       </c>
       <c r="BX39">
-        <v>194491.15</v>
+        <v>243658.65</v>
       </c>
       <c r="BY39" t="s">
         <v>726</v>
@@ -11904,10 +11904,10 @@
         <v>370796</v>
       </c>
       <c r="CA39">
-        <v>270253.75</v>
+        <v>254840.6</v>
       </c>
       <c r="CB39">
-        <v>193799.73</v>
+        <v>209785.32</v>
       </c>
       <c r="CC39" t="s">
         <v>319</v>
@@ -11916,10 +11916,10 @@
         <v>370796</v>
       </c>
       <c r="CE39">
-        <v>302127.87</v>
+        <v>285452.21</v>
       </c>
       <c r="CF39">
-        <v>283571.03</v>
+        <v>217387.88</v>
       </c>
       <c r="CG39" t="s">
         <v>319</v>
@@ -11928,10 +11928,10 @@
         <v>370796</v>
       </c>
       <c r="CI39">
-        <v>310965.29</v>
+        <v>316685.66</v>
       </c>
       <c r="CJ39">
-        <v>223273.77</v>
+        <v>210396.36</v>
       </c>
       <c r="CK39" t="s">
         <v>319</v>
@@ -12065,10 +12065,10 @@
         <v>62718</v>
       </c>
       <c r="AU40">
-        <v>49237.86</v>
+        <v>53691.85</v>
       </c>
       <c r="AV40">
-        <v>31905.3</v>
+        <v>44082.41</v>
       </c>
       <c r="AW40" t="s">
         <v>319</v>
@@ -12077,10 +12077,10 @@
         <v>62718</v>
       </c>
       <c r="AY40">
-        <v>49668.06</v>
+        <v>52184.35</v>
       </c>
       <c r="AZ40">
-        <v>44924.3</v>
+        <v>31263.93</v>
       </c>
       <c r="BA40" t="s">
         <v>319</v>
@@ -12089,10 +12089,10 @@
         <v>62718</v>
       </c>
       <c r="BC40">
-        <v>47303.71</v>
+        <v>47112.22</v>
       </c>
       <c r="BD40">
-        <v>31146.82</v>
+        <v>37915.84</v>
       </c>
       <c r="BE40" t="s">
         <v>319</v>
@@ -12101,10 +12101,10 @@
         <v>62718</v>
       </c>
       <c r="BG40">
-        <v>48064.96</v>
+        <v>53263.55</v>
       </c>
       <c r="BH40">
-        <v>43686.68</v>
+        <v>43473.56</v>
       </c>
       <c r="BI40" t="s">
         <v>319</v>
@@ -12113,10 +12113,10 @@
         <v>62718</v>
       </c>
       <c r="BK40">
-        <v>56016.38</v>
+        <v>59582.1</v>
       </c>
       <c r="BL40">
-        <v>35696.49</v>
+        <v>43025.82</v>
       </c>
       <c r="BM40" t="s">
         <v>319</v>
@@ -12125,10 +12125,10 @@
         <v>62718</v>
       </c>
       <c r="BO40">
-        <v>46403.04</v>
+        <v>43606.21</v>
       </c>
       <c r="BP40">
-        <v>32038.19</v>
+        <v>38607.7</v>
       </c>
       <c r="BQ40" t="s">
         <v>702</v>
@@ -12137,10 +12137,10 @@
         <v>65060</v>
       </c>
       <c r="BS40">
-        <v>51193.88</v>
+        <v>50008.45</v>
       </c>
       <c r="BT40">
-        <v>33691.88</v>
+        <v>44130.95</v>
       </c>
       <c r="BU40" t="s">
         <v>713</v>
@@ -12149,10 +12149,10 @@
         <v>65070</v>
       </c>
       <c r="BW40">
-        <v>48371.4</v>
+        <v>48050.67</v>
       </c>
       <c r="BX40">
-        <v>45381.32</v>
+        <v>42198.04</v>
       </c>
       <c r="BY40" t="s">
         <v>727</v>
@@ -12161,10 +12161,10 @@
         <v>47974</v>
       </c>
       <c r="CA40">
-        <v>37804.15</v>
+        <v>33581.74</v>
       </c>
       <c r="CB40">
-        <v>28607.35</v>
+        <v>28938.72</v>
       </c>
       <c r="CC40" t="s">
         <v>319</v>
@@ -12173,10 +12173,10 @@
         <v>47974</v>
       </c>
       <c r="CE40">
-        <v>41969.57</v>
+        <v>35215.78</v>
       </c>
       <c r="CF40">
-        <v>25289.31</v>
+        <v>25556.13</v>
       </c>
       <c r="CG40" t="s">
         <v>319</v>
@@ -12185,10 +12185,10 @@
         <v>47974</v>
       </c>
       <c r="CI40">
-        <v>34258.52</v>
+        <v>42222.12</v>
       </c>
       <c r="CJ40">
-        <v>25651.07</v>
+        <v>29722.98</v>
       </c>
       <c r="CK40" t="s">
         <v>319</v>
@@ -12313,10 +12313,10 @@
         <v>132938</v>
       </c>
       <c r="AU41">
-        <v>99166.41</v>
+        <v>107781.58</v>
       </c>
       <c r="AV41">
-        <v>77412</v>
+        <v>83468.53</v>
       </c>
       <c r="AW41" t="s">
         <v>319</v>
@@ -12325,10 +12325,10 @@
         <v>132938</v>
       </c>
       <c r="AY41">
-        <v>121685.64</v>
+        <v>99348.21000000001</v>
       </c>
       <c r="AZ41">
-        <v>86903.88</v>
+        <v>78021.99000000001</v>
       </c>
       <c r="BA41" t="s">
         <v>319</v>
@@ -12337,10 +12337,10 @@
         <v>132938</v>
       </c>
       <c r="BC41">
-        <v>121909.45</v>
+        <v>107467.56</v>
       </c>
       <c r="BD41">
-        <v>100780.79</v>
+        <v>68779.73</v>
       </c>
       <c r="BE41" t="s">
         <v>319</v>
@@ -12349,10 +12349,10 @@
         <v>132938</v>
       </c>
       <c r="BG41">
-        <v>111050.23</v>
+        <v>95637.34</v>
       </c>
       <c r="BH41">
-        <v>87020.06</v>
+        <v>78674.35000000001</v>
       </c>
       <c r="BI41" t="s">
         <v>319</v>
@@ -12361,10 +12361,10 @@
         <v>132938</v>
       </c>
       <c r="BK41">
-        <v>118273.38</v>
+        <v>98177.67999999999</v>
       </c>
       <c r="BL41">
-        <v>89706.67999999999</v>
+        <v>87273.33</v>
       </c>
       <c r="BM41" t="s">
         <v>319</v>
@@ -12373,10 +12373,10 @@
         <v>132938</v>
       </c>
       <c r="BO41">
-        <v>82932.58</v>
+        <v>98999.07000000001</v>
       </c>
       <c r="BP41">
-        <v>55679.23</v>
+        <v>86082.05</v>
       </c>
       <c r="BQ41" t="s">
         <v>319</v>
@@ -12385,10 +12385,10 @@
         <v>132938</v>
       </c>
       <c r="BS41">
-        <v>120035.43</v>
+        <v>111107.91</v>
       </c>
       <c r="BT41">
-        <v>74904.39999999999</v>
+        <v>93108.17</v>
       </c>
       <c r="BU41" t="s">
         <v>319</v>
@@ -12397,10 +12397,10 @@
         <v>132938</v>
       </c>
       <c r="BW41">
-        <v>80741.41</v>
+        <v>99176.28</v>
       </c>
       <c r="BX41">
-        <v>52598.27</v>
+        <v>70840.84</v>
       </c>
       <c r="BY41" t="s">
         <v>319</v>
@@ -12409,10 +12409,10 @@
         <v>132938</v>
       </c>
       <c r="CA41">
-        <v>119721.21</v>
+        <v>92276.03</v>
       </c>
       <c r="CB41">
-        <v>75255.99000000001</v>
+        <v>72969.21000000001</v>
       </c>
       <c r="CC41" t="s">
         <v>319</v>
@@ -12421,10 +12421,10 @@
         <v>132938</v>
       </c>
       <c r="CE41">
-        <v>90228.95</v>
+        <v>103390.24</v>
       </c>
       <c r="CF41">
-        <v>68190.81</v>
+        <v>88323.08</v>
       </c>
       <c r="CG41" t="s">
         <v>319</v>
@@ -12433,10 +12433,10 @@
         <v>132938</v>
       </c>
       <c r="CI41">
-        <v>125865.9</v>
+        <v>110145.01</v>
       </c>
       <c r="CJ41">
-        <v>79538.75</v>
+        <v>92367.66</v>
       </c>
       <c r="CK41" t="s">
         <v>319</v>
@@ -12570,10 +12570,10 @@
         <v>4948811</v>
       </c>
       <c r="AU42">
-        <v>3366280.78</v>
+        <v>3969460.41</v>
       </c>
       <c r="AV42">
-        <v>2254037.65</v>
+        <v>2908268.83</v>
       </c>
       <c r="AW42" t="s">
         <v>319</v>
@@ -12582,10 +12582,10 @@
         <v>4948811</v>
       </c>
       <c r="AY42">
-        <v>3937169.18</v>
+        <v>4009895.77</v>
       </c>
       <c r="AZ42">
-        <v>3432735.53</v>
+        <v>3434628.21</v>
       </c>
       <c r="BA42" t="s">
         <v>319</v>
@@ -12594,10 +12594,10 @@
         <v>4948811</v>
       </c>
       <c r="BC42">
-        <v>3281528.05</v>
+        <v>4701370.45</v>
       </c>
       <c r="BD42">
-        <v>2611857.45</v>
+        <v>3944960.19</v>
       </c>
       <c r="BE42" t="s">
         <v>319</v>
@@ -12606,10 +12606,10 @@
         <v>4948811</v>
       </c>
       <c r="BG42">
-        <v>3611276.63</v>
+        <v>4442875.22</v>
       </c>
       <c r="BH42">
-        <v>3027471.01</v>
+        <v>3677900.1</v>
       </c>
       <c r="BI42" t="s">
         <v>319</v>
@@ -12618,10 +12618,10 @@
         <v>4948811</v>
       </c>
       <c r="BK42">
-        <v>4395262.05</v>
+        <v>4144775.23</v>
       </c>
       <c r="BL42">
-        <v>4111485.03</v>
+        <v>3931843.81</v>
       </c>
       <c r="BM42" t="s">
         <v>319</v>
@@ -12630,10 +12630,10 @@
         <v>4948811</v>
       </c>
       <c r="BO42">
-        <v>4692994.6</v>
+        <v>4167233.9</v>
       </c>
       <c r="BP42">
-        <v>3200221.92</v>
+        <v>2814994.48</v>
       </c>
       <c r="BQ42" t="s">
         <v>319</v>
@@ -12642,10 +12642,10 @@
         <v>247828</v>
       </c>
       <c r="BS42">
-        <v>158686.76</v>
+        <v>182554.31</v>
       </c>
       <c r="BT42">
-        <v>133988.91</v>
+        <v>138752.91</v>
       </c>
       <c r="BU42" t="s">
         <v>319</v>
@@ -12654,10 +12654,10 @@
         <v>247828</v>
       </c>
       <c r="BW42">
-        <v>150314.95</v>
+        <v>190309.98</v>
       </c>
       <c r="BX42">
-        <v>121407.71</v>
+        <v>156370.25</v>
       </c>
       <c r="BY42" t="s">
         <v>319</v>
@@ -12666,10 +12666,10 @@
         <v>247828</v>
       </c>
       <c r="CA42">
-        <v>205836.59</v>
+        <v>176350.03</v>
       </c>
       <c r="CB42">
-        <v>173729.49</v>
+        <v>122649.24</v>
       </c>
       <c r="CC42" t="s">
         <v>319</v>
@@ -12678,10 +12678,10 @@
         <v>247828</v>
       </c>
       <c r="CE42">
-        <v>209958.47</v>
+        <v>207875.05</v>
       </c>
       <c r="CF42">
-        <v>166777.64</v>
+        <v>169095.41</v>
       </c>
       <c r="CG42" t="s">
         <v>319</v>
@@ -12690,10 +12690,10 @@
         <v>247828</v>
       </c>
       <c r="CI42">
-        <v>174254.9</v>
+        <v>210178.03</v>
       </c>
       <c r="CJ42">
-        <v>122361.92</v>
+        <v>165013.21</v>
       </c>
       <c r="CK42" t="s">
         <v>319</v>
@@ -12827,10 +12827,10 @@
         <v>14883400</v>
       </c>
       <c r="AU43">
-        <v>9033224</v>
+        <v>11095246.38</v>
       </c>
       <c r="AV43">
-        <v>7271133.54</v>
+        <v>7734438.28</v>
       </c>
       <c r="AW43" t="s">
         <v>319</v>
@@ -12839,10 +12839,10 @@
         <v>14883400</v>
       </c>
       <c r="AY43">
-        <v>10247161.35</v>
+        <v>12406472</v>
       </c>
       <c r="AZ43">
-        <v>8043666.88</v>
+        <v>11066964.85</v>
       </c>
       <c r="BA43" t="s">
         <v>319</v>
@@ -12851,10 +12851,10 @@
         <v>14883400</v>
       </c>
       <c r="BC43">
-        <v>10639508.31</v>
+        <v>13416135.15</v>
       </c>
       <c r="BD43">
-        <v>6931785.31</v>
+        <v>12017260.58</v>
       </c>
       <c r="BE43" t="s">
         <v>319</v>
@@ -12863,10 +12863,10 @@
         <v>14883400</v>
       </c>
       <c r="BG43">
-        <v>12004157.13</v>
+        <v>12310767.39</v>
       </c>
       <c r="BH43">
-        <v>9782964.84</v>
+        <v>10612791.12</v>
       </c>
       <c r="BI43" t="s">
         <v>319</v>
@@ -12875,10 +12875,10 @@
         <v>14883400</v>
       </c>
       <c r="BK43">
-        <v>9761700.779999999</v>
+        <v>13201320.15</v>
       </c>
       <c r="BL43">
-        <v>8161751.81</v>
+        <v>11443813.68</v>
       </c>
       <c r="BM43" t="s">
         <v>319</v>
@@ -12887,10 +12887,10 @@
         <v>14883400</v>
       </c>
       <c r="BO43">
-        <v>9759828.74</v>
+        <v>13402834.19</v>
       </c>
       <c r="BP43">
-        <v>8236386.62</v>
+        <v>9803276.66</v>
       </c>
       <c r="BQ43" t="s">
         <v>319</v>
@@ -12899,10 +12899,10 @@
         <v>13843850</v>
       </c>
       <c r="BS43">
-        <v>9536354.039999999</v>
+        <v>9940544.92</v>
       </c>
       <c r="BT43">
-        <v>7254888.76</v>
+        <v>6480111.35</v>
       </c>
       <c r="BU43" t="s">
         <v>319</v>
@@ -12911,10 +12911,10 @@
         <v>13843850</v>
       </c>
       <c r="BW43">
-        <v>8368993.66</v>
+        <v>11784895.62</v>
       </c>
       <c r="BX43">
-        <v>6351276.08</v>
+        <v>10877120.99</v>
       </c>
       <c r="BY43" t="s">
         <v>319</v>
@@ -12923,10 +12923,10 @@
         <v>13843850</v>
       </c>
       <c r="CA43">
-        <v>12570762.17</v>
+        <v>10412065.73</v>
       </c>
       <c r="CB43">
-        <v>9371811.699999999</v>
+        <v>8359818.75</v>
       </c>
       <c r="CC43" t="s">
         <v>319</v>
@@ -12935,10 +12935,10 @@
         <v>13843850</v>
       </c>
       <c r="CE43">
-        <v>8680990.34</v>
+        <v>11468942.11</v>
       </c>
       <c r="CF43">
-        <v>7451710.06</v>
+        <v>8630625.529999999</v>
       </c>
       <c r="CG43" t="s">
         <v>319</v>
@@ -12947,10 +12947,10 @@
         <v>13843850</v>
       </c>
       <c r="CI43">
-        <v>13028104.91</v>
+        <v>9664521.01</v>
       </c>
       <c r="CJ43">
-        <v>9673528.140000001</v>
+        <v>7697283.48</v>
       </c>
       <c r="CK43" t="s">
         <v>319</v>
@@ -13075,10 +13075,10 @@
         <v>10000</v>
       </c>
       <c r="AU44">
-        <v>6701.54</v>
+        <v>7232.13</v>
       </c>
       <c r="AV44">
-        <v>6080.84</v>
+        <v>6291.51</v>
       </c>
       <c r="AW44" t="s">
         <v>319</v>
@@ -13087,10 +13087,10 @@
         <v>10000</v>
       </c>
       <c r="AY44">
-        <v>7283.53</v>
+        <v>7139.15</v>
       </c>
       <c r="AZ44">
-        <v>5334.18</v>
+        <v>4984.28</v>
       </c>
       <c r="BA44" t="s">
         <v>319</v>
@@ -13099,10 +13099,10 @@
         <v>10000</v>
       </c>
       <c r="BC44">
-        <v>6636.54</v>
+        <v>8010.41</v>
       </c>
       <c r="BD44">
-        <v>5280.96</v>
+        <v>6749.51</v>
       </c>
       <c r="BE44" t="s">
         <v>319</v>
@@ -13111,10 +13111,10 @@
         <v>10000</v>
       </c>
       <c r="BG44">
-        <v>7399.41</v>
+        <v>7845.49</v>
       </c>
       <c r="BH44">
-        <v>6354.32</v>
+        <v>6967.5</v>
       </c>
       <c r="BI44" t="s">
         <v>319</v>
@@ -13123,10 +13123,10 @@
         <v>10000</v>
       </c>
       <c r="BK44">
-        <v>6822.84</v>
+        <v>7613.33</v>
       </c>
       <c r="BL44">
-        <v>4417.41</v>
+        <v>6112.24</v>
       </c>
       <c r="BM44" t="s">
         <v>319</v>
@@ -13135,10 +13135,10 @@
         <v>10000</v>
       </c>
       <c r="BO44">
-        <v>8107.51</v>
+        <v>9495.27</v>
       </c>
       <c r="BP44">
-        <v>6981.41</v>
+        <v>8156.37</v>
       </c>
       <c r="BQ44" t="s">
         <v>319</v>
@@ -13147,10 +13147,10 @@
         <v>10000</v>
       </c>
       <c r="BS44">
-        <v>7886.19</v>
+        <v>8773.950000000001</v>
       </c>
       <c r="BT44">
-        <v>5996.52</v>
+        <v>6856.78</v>
       </c>
       <c r="BU44" t="s">
         <v>319</v>
@@ -13159,10 +13159,10 @@
         <v>10000</v>
       </c>
       <c r="BW44">
-        <v>9007.190000000001</v>
+        <v>8088.35</v>
       </c>
       <c r="BX44">
-        <v>5710.75</v>
+        <v>5644.45</v>
       </c>
       <c r="BY44" t="s">
         <v>319</v>
@@ -13171,10 +13171,10 @@
         <v>30000</v>
       </c>
       <c r="CA44">
-        <v>21097.56</v>
+        <v>24786.92</v>
       </c>
       <c r="CB44">
-        <v>17285.15</v>
+        <v>23410.81</v>
       </c>
       <c r="CC44" t="s">
         <v>319</v>
@@ -13183,10 +13183,10 @@
         <v>17000</v>
       </c>
       <c r="CE44">
-        <v>15190.35</v>
+        <v>13117.38</v>
       </c>
       <c r="CF44">
-        <v>10208.15</v>
+        <v>9686.25</v>
       </c>
       <c r="CG44" t="s">
         <v>319</v>
@@ -13195,10 +13195,10 @@
         <v>17000</v>
       </c>
       <c r="CI44">
-        <v>13573.48</v>
+        <v>12855.75</v>
       </c>
       <c r="CJ44">
-        <v>9085.35</v>
+        <v>11061.26</v>
       </c>
       <c r="CK44" t="s">
         <v>319</v>
@@ -13326,10 +13326,10 @@
         <v>60000</v>
       </c>
       <c r="AU45">
-        <v>48679.31</v>
+        <v>53050.71</v>
       </c>
       <c r="AV45">
-        <v>38687.64</v>
+        <v>44176.03</v>
       </c>
       <c r="AW45" t="s">
         <v>319</v>
@@ -13338,10 +13338,10 @@
         <v>60000</v>
       </c>
       <c r="AY45">
-        <v>37976.89</v>
+        <v>48327.72</v>
       </c>
       <c r="AZ45">
-        <v>28194.48</v>
+        <v>39111.13</v>
       </c>
       <c r="BA45" t="s">
         <v>319</v>
@@ -13350,10 +13350,10 @@
         <v>60000</v>
       </c>
       <c r="BC45">
-        <v>47852.09</v>
+        <v>45785.97</v>
       </c>
       <c r="BD45">
-        <v>41941.37</v>
+        <v>40761.96</v>
       </c>
       <c r="BE45" t="s">
         <v>319</v>
@@ -13362,10 +13362,10 @@
         <v>60000</v>
       </c>
       <c r="BG45">
-        <v>37708.2</v>
+        <v>49297.12</v>
       </c>
       <c r="BH45">
-        <v>32208.67</v>
+        <v>37640.09</v>
       </c>
       <c r="BI45" t="s">
         <v>319</v>
@@ -13374,10 +13374,10 @@
         <v>60000</v>
       </c>
       <c r="BK45">
-        <v>49189.73</v>
+        <v>48032.34</v>
       </c>
       <c r="BL45">
-        <v>31372.93</v>
+        <v>38872.82</v>
       </c>
       <c r="BM45" t="s">
         <v>319</v>
@@ -13386,10 +13386,10 @@
         <v>429611.1</v>
       </c>
       <c r="BO45">
-        <v>356055.49</v>
+        <v>386453.9</v>
       </c>
       <c r="BP45">
-        <v>241422.6</v>
+        <v>295608.79</v>
       </c>
       <c r="BQ45" t="s">
         <v>319</v>
@@ -13398,10 +13398,10 @@
         <v>436072</v>
       </c>
       <c r="BS45">
-        <v>274447.49</v>
+        <v>359267.56</v>
       </c>
       <c r="BT45">
-        <v>235507.8</v>
+        <v>326854.53</v>
       </c>
       <c r="BU45" t="s">
         <v>319</v>
@@ -13410,10 +13410,10 @@
         <v>418448</v>
       </c>
       <c r="BW45">
-        <v>304551.02</v>
+        <v>350609.69</v>
       </c>
       <c r="BX45">
-        <v>223022.49</v>
+        <v>315959.19</v>
       </c>
       <c r="BY45" t="s">
         <v>319</v>
@@ -13422,10 +13422,10 @@
         <v>416790.6</v>
       </c>
       <c r="CA45">
-        <v>355824.04</v>
+        <v>333290.49</v>
       </c>
       <c r="CB45">
-        <v>234787.91</v>
+        <v>275940.76</v>
       </c>
       <c r="CC45" t="s">
         <v>319</v>
@@ -13434,10 +13434,10 @@
         <v>416790.6</v>
       </c>
       <c r="CE45">
-        <v>259909.9</v>
+        <v>389822.84</v>
       </c>
       <c r="CF45">
-        <v>227898.13</v>
+        <v>343681.59</v>
       </c>
       <c r="CG45" t="s">
         <v>319</v>
@@ -13446,10 +13446,10 @@
         <v>416790.6</v>
       </c>
       <c r="CI45">
-        <v>251928.21</v>
+        <v>307103.7</v>
       </c>
       <c r="CJ45">
-        <v>181071.96</v>
+        <v>212637.6</v>
       </c>
       <c r="CK45" t="s">
         <v>319</v>
@@ -13583,10 +13583,10 @@
         <v>130000</v>
       </c>
       <c r="AU46">
-        <v>100963.15</v>
+        <v>118441.93</v>
       </c>
       <c r="AV46">
-        <v>68186.32000000001</v>
+        <v>86858.66</v>
       </c>
       <c r="AW46" t="s">
         <v>319</v>
@@ -13595,10 +13595,10 @@
         <v>130000</v>
       </c>
       <c r="AY46">
-        <v>85320.00999999999</v>
+        <v>89960.13</v>
       </c>
       <c r="AZ46">
-        <v>60188.53</v>
+        <v>64339.63</v>
       </c>
       <c r="BA46" t="s">
         <v>319</v>
@@ -13607,10 +13607,10 @@
         <v>130000</v>
       </c>
       <c r="BC46">
-        <v>89283.28</v>
+        <v>117196.44</v>
       </c>
       <c r="BD46">
-        <v>82188.98</v>
+        <v>105471.84</v>
       </c>
       <c r="BE46" t="s">
         <v>319</v>
@@ -13619,10 +13619,10 @@
         <v>130000</v>
       </c>
       <c r="BG46">
-        <v>111249.64</v>
+        <v>96082.48</v>
       </c>
       <c r="BH46">
-        <v>86839.25999999999</v>
+        <v>77430.60000000001</v>
       </c>
       <c r="BI46" t="s">
         <v>319</v>
@@ -13631,10 +13631,10 @@
         <v>130000</v>
       </c>
       <c r="BK46">
-        <v>99165.35000000001</v>
+        <v>118875.29</v>
       </c>
       <c r="BL46">
-        <v>81571.83</v>
+        <v>98834.47</v>
       </c>
       <c r="BM46" t="s">
         <v>319</v>
@@ -13643,10 +13643,10 @@
         <v>130000</v>
       </c>
       <c r="BO46">
-        <v>100791.22</v>
+        <v>90549.74000000001</v>
       </c>
       <c r="BP46">
-        <v>66706.14999999999</v>
+        <v>68242.14999999999</v>
       </c>
       <c r="BQ46" t="s">
         <v>319</v>
@@ -13655,10 +13655,10 @@
         <v>130000</v>
       </c>
       <c r="BS46">
-        <v>88919.55</v>
+        <v>104906.2</v>
       </c>
       <c r="BT46">
-        <v>76336.2</v>
+        <v>79362.33</v>
       </c>
       <c r="BU46" t="s">
         <v>319</v>
@@ -13667,10 +13667,10 @@
         <v>130000</v>
       </c>
       <c r="BW46">
-        <v>94482.57000000001</v>
+        <v>123500</v>
       </c>
       <c r="BX46">
-        <v>80745.91</v>
+        <v>78266.81</v>
       </c>
       <c r="BY46" t="s">
         <v>728</v>
@@ -13679,10 +13679,10 @@
         <v>130000</v>
       </c>
       <c r="CA46">
-        <v>85196.44</v>
+        <v>103737.08</v>
       </c>
       <c r="CB46">
-        <v>58978.18</v>
+        <v>98550.22</v>
       </c>
       <c r="CC46" t="s">
         <v>319</v>
@@ -13691,10 +13691,10 @@
         <v>130000</v>
       </c>
       <c r="CE46">
-        <v>107140.31</v>
+        <v>91014.17999999999</v>
       </c>
       <c r="CF46">
-        <v>94414.87</v>
+        <v>75515.88</v>
       </c>
       <c r="CG46" t="s">
         <v>319</v>
@@ -13703,10 +13703,10 @@
         <v>130000</v>
       </c>
       <c r="CI46">
-        <v>107076</v>
+        <v>100526.68</v>
       </c>
       <c r="CJ46">
-        <v>90162.19</v>
+        <v>87349.45</v>
       </c>
       <c r="CK46" t="s">
         <v>319</v>
@@ -13831,10 +13831,10 @@
         <v>87000</v>
       </c>
       <c r="AU47">
-        <v>81718.55</v>
+        <v>66568.82000000001</v>
       </c>
       <c r="AV47">
-        <v>76690.05</v>
+        <v>54848.49</v>
       </c>
       <c r="AW47" t="s">
         <v>319</v>
@@ -13843,10 +13843,10 @@
         <v>87000</v>
       </c>
       <c r="AY47">
-        <v>62257.06</v>
+        <v>59722.81</v>
       </c>
       <c r="AZ47">
-        <v>46737</v>
+        <v>43894.7</v>
       </c>
       <c r="BA47" t="s">
         <v>319</v>
@@ -13855,10 +13855,10 @@
         <v>87000</v>
       </c>
       <c r="BC47">
-        <v>67991.75999999999</v>
+        <v>65351.01</v>
       </c>
       <c r="BD47">
-        <v>45653.78</v>
+        <v>46169.92</v>
       </c>
       <c r="BE47" t="s">
         <v>319</v>
@@ -13867,10 +13867,10 @@
         <v>87000</v>
       </c>
       <c r="BG47">
-        <v>60216.97</v>
+        <v>74482.92</v>
       </c>
       <c r="BH47">
-        <v>47074.42</v>
+        <v>63060.77</v>
       </c>
       <c r="BI47" t="s">
         <v>319</v>
@@ -13879,10 +13879,10 @@
         <v>87000</v>
       </c>
       <c r="BK47">
-        <v>67413.75999999999</v>
+        <v>69249.60000000001</v>
       </c>
       <c r="BL47">
-        <v>56895.48</v>
+        <v>43603.5</v>
       </c>
       <c r="BM47" t="s">
         <v>693</v>
@@ -13891,10 +13891,10 @@
         <v>8000</v>
       </c>
       <c r="BO47">
-        <v>5509.91</v>
+        <v>5904.02</v>
       </c>
       <c r="BP47">
-        <v>5209.19</v>
+        <v>5210.46</v>
       </c>
       <c r="BQ47" t="s">
         <v>703</v>
@@ -13903,10 +13903,10 @@
         <v>11554.5</v>
       </c>
       <c r="BS47">
-        <v>10432</v>
+        <v>8209.459999999999</v>
       </c>
       <c r="BT47">
-        <v>8217.610000000001</v>
+        <v>6332.27</v>
       </c>
       <c r="BU47" t="s">
         <v>714</v>
@@ -13915,10 +13915,10 @@
         <v>100000</v>
       </c>
       <c r="BW47">
-        <v>60154.34</v>
+        <v>89797.11</v>
       </c>
       <c r="BX47">
-        <v>52514</v>
+        <v>57598.4</v>
       </c>
       <c r="BY47" t="s">
         <v>319</v>
@@ -13927,10 +13927,10 @@
         <v>150000</v>
       </c>
       <c r="CA47">
-        <v>103015.66</v>
+        <v>113611.08</v>
       </c>
       <c r="CB47">
-        <v>88874.59</v>
+        <v>90405.42</v>
       </c>
       <c r="CC47" t="s">
         <v>319</v>
@@ -13939,10 +13939,10 @@
         <v>150000</v>
       </c>
       <c r="CE47">
-        <v>119746.33</v>
+        <v>107679.76</v>
       </c>
       <c r="CF47">
-        <v>89808.34</v>
+        <v>86766.22</v>
       </c>
       <c r="CG47" t="s">
         <v>319</v>
@@ -13951,10 +13951,10 @@
         <v>150000</v>
       </c>
       <c r="CI47">
-        <v>129578.48</v>
+        <v>136228.35</v>
       </c>
       <c r="CJ47">
-        <v>116780.31</v>
+        <v>104773.62</v>
       </c>
       <c r="CK47" t="s">
         <v>319</v>
@@ -14082,10 +14082,10 @@
         <v>70000</v>
       </c>
       <c r="AU48">
-        <v>49871.17</v>
+        <v>48122.61</v>
       </c>
       <c r="AV48">
-        <v>43471.49</v>
+        <v>39824.92</v>
       </c>
       <c r="AW48" t="s">
         <v>319</v>
@@ -14094,10 +14094,10 @@
         <v>70000</v>
       </c>
       <c r="AY48">
-        <v>64464.39</v>
+        <v>48967.24</v>
       </c>
       <c r="AZ48">
-        <v>52915.53</v>
+        <v>38005.05</v>
       </c>
       <c r="BA48" t="s">
         <v>319</v>
@@ -14106,10 +14106,10 @@
         <v>70000</v>
       </c>
       <c r="BC48">
-        <v>52125.37</v>
+        <v>52510.65</v>
       </c>
       <c r="BD48">
-        <v>48120.88</v>
+        <v>37959.07</v>
       </c>
       <c r="BE48" t="s">
         <v>319</v>
@@ -14118,10 +14118,10 @@
         <v>70000</v>
       </c>
       <c r="BG48">
-        <v>45015.61</v>
+        <v>56403.09</v>
       </c>
       <c r="BH48">
-        <v>31501.94</v>
+        <v>41138.4</v>
       </c>
       <c r="BI48" t="s">
         <v>319</v>
@@ -14130,10 +14130,10 @@
         <v>70000</v>
       </c>
       <c r="BK48">
-        <v>61634.59</v>
+        <v>51472.8</v>
       </c>
       <c r="BL48">
-        <v>55796.95</v>
+        <v>40968.71</v>
       </c>
       <c r="BM48" t="s">
         <v>319</v>
@@ -14142,10 +14142,10 @@
         <v>56000</v>
       </c>
       <c r="BO48">
-        <v>47882.13</v>
+        <v>47589</v>
       </c>
       <c r="BP48">
-        <v>41848.87</v>
+        <v>40390.07</v>
       </c>
       <c r="BQ48" t="s">
         <v>319</v>
@@ -14154,10 +14154,10 @@
         <v>14000</v>
       </c>
       <c r="BS48">
-        <v>11861.24</v>
+        <v>12767.58</v>
       </c>
       <c r="BT48">
-        <v>7270.09</v>
+        <v>9845.610000000001</v>
       </c>
       <c r="BU48" t="s">
         <v>319</v>
@@ -14166,10 +14166,10 @@
         <v>59361.76</v>
       </c>
       <c r="BW48">
-        <v>53049.5</v>
+        <v>51911.72</v>
       </c>
       <c r="BX48">
-        <v>39840.82</v>
+        <v>38457.05</v>
       </c>
       <c r="BY48" t="s">
         <v>319</v>
@@ -14178,10 +14178,10 @@
         <v>61289.65</v>
       </c>
       <c r="CA48">
-        <v>48158.09</v>
+        <v>44351.1</v>
       </c>
       <c r="CB48">
-        <v>38128.05</v>
+        <v>37518.35</v>
       </c>
       <c r="CC48" t="s">
         <v>319</v>
@@ -14190,10 +14190,10 @@
         <v>65977.50999999999</v>
       </c>
       <c r="CE48">
-        <v>61826.02</v>
+        <v>56029.39</v>
       </c>
       <c r="CF48">
-        <v>53973.24</v>
+        <v>49463.92</v>
       </c>
       <c r="CG48" t="s">
         <v>319</v>
@@ -14202,10 +14202,10 @@
         <v>65971.14</v>
       </c>
       <c r="CI48">
-        <v>42252.41</v>
+        <v>48533.02</v>
       </c>
       <c r="CJ48">
-        <v>26575.81</v>
+        <v>46106.37</v>
       </c>
       <c r="CK48" t="s">
         <v>319</v>
@@ -14336,10 +14336,10 @@
         <v>128792</v>
       </c>
       <c r="AU49">
-        <v>82650.48</v>
+        <v>100504.5</v>
       </c>
       <c r="AV49">
-        <v>72169.17</v>
+        <v>85283.99000000001</v>
       </c>
       <c r="AW49" t="s">
         <v>319</v>
@@ -14348,10 +14348,10 @@
         <v>128792</v>
       </c>
       <c r="AY49">
-        <v>121201.22</v>
+        <v>97337.25999999999</v>
       </c>
       <c r="AZ49">
-        <v>97776.42</v>
+        <v>78783.86</v>
       </c>
       <c r="BA49" t="s">
         <v>319</v>
@@ -14360,10 +14360,10 @@
         <v>128792</v>
       </c>
       <c r="BC49">
-        <v>98829.16</v>
+        <v>115660.04</v>
       </c>
       <c r="BD49">
-        <v>89554.07000000001</v>
+        <v>93239.53</v>
       </c>
       <c r="BE49" t="s">
         <v>319</v>
@@ -14372,10 +14372,10 @@
         <v>128792</v>
       </c>
       <c r="BG49">
-        <v>96266.22</v>
+        <v>118713.83</v>
       </c>
       <c r="BH49">
-        <v>80443.12</v>
+        <v>81537.39999999999</v>
       </c>
       <c r="BI49" t="s">
         <v>319</v>
@@ -14384,10 +14384,10 @@
         <v>128792</v>
       </c>
       <c r="BK49">
-        <v>102512.67</v>
+        <v>120854.94</v>
       </c>
       <c r="BL49">
-        <v>71432.95</v>
+        <v>110692.23</v>
       </c>
       <c r="BM49" t="s">
         <v>319</v>
@@ -14396,10 +14396,10 @@
         <v>128792</v>
       </c>
       <c r="BO49">
-        <v>78630.17999999999</v>
+        <v>82126.03999999999</v>
       </c>
       <c r="BP49">
-        <v>57694.65</v>
+        <v>72068.39</v>
       </c>
       <c r="BQ49" t="s">
         <v>319</v>
@@ -14408,10 +14408,10 @@
         <v>128792</v>
       </c>
       <c r="BS49">
-        <v>78931.7</v>
+        <v>103030.4</v>
       </c>
       <c r="BT49">
-        <v>52805.84</v>
+        <v>69173.94</v>
       </c>
       <c r="BU49" t="s">
         <v>715</v>
@@ -14420,10 +14420,10 @@
         <v>126215</v>
       </c>
       <c r="BW49">
-        <v>114919.38</v>
+        <v>111285.95</v>
       </c>
       <c r="BX49">
-        <v>84277.7</v>
+        <v>79132.8</v>
       </c>
       <c r="BY49" t="s">
         <v>319</v>
@@ -14432,10 +14432,10 @@
         <v>126215</v>
       </c>
       <c r="CA49">
-        <v>76378.47</v>
+        <v>107812.3</v>
       </c>
       <c r="CB49">
-        <v>72406.03999999999</v>
+        <v>82181.48</v>
       </c>
       <c r="CC49" t="s">
         <v>319</v>
@@ -14444,10 +14444,10 @@
         <v>126215</v>
       </c>
       <c r="CE49">
-        <v>93925.5</v>
+        <v>110614.27</v>
       </c>
       <c r="CF49">
-        <v>86188.98</v>
+        <v>78355.95</v>
       </c>
       <c r="CG49" t="s">
         <v>319</v>
@@ -14456,10 +14456,10 @@
         <v>126215</v>
       </c>
       <c r="CI49">
-        <v>110525.2</v>
+        <v>98895.28</v>
       </c>
       <c r="CJ49">
-        <v>83171.64999999999</v>
+        <v>73596.71000000001</v>
       </c>
       <c r="CK49" t="s">
         <v>319</v>
@@ -14593,10 +14593,10 @@
         <v>164396</v>
       </c>
       <c r="AU50">
-        <v>115112.74</v>
+        <v>126512.5</v>
       </c>
       <c r="AV50">
-        <v>80716.72</v>
+        <v>108327.44</v>
       </c>
       <c r="AW50" t="s">
         <v>319</v>
@@ -14605,10 +14605,10 @@
         <v>164396</v>
       </c>
       <c r="AY50">
-        <v>144984.37</v>
+        <v>114988.54</v>
       </c>
       <c r="AZ50">
-        <v>129319.25</v>
+        <v>103416.76</v>
       </c>
       <c r="BA50" t="s">
         <v>319</v>
@@ -14617,10 +14617,10 @@
         <v>164396</v>
       </c>
       <c r="BC50">
-        <v>107834.15</v>
+        <v>142109.92</v>
       </c>
       <c r="BD50">
-        <v>99195.06</v>
+        <v>117239.82</v>
       </c>
       <c r="BE50" t="s">
         <v>319</v>
@@ -14629,10 +14629,10 @@
         <v>164396</v>
       </c>
       <c r="BG50">
-        <v>109409.79</v>
+        <v>140592.2</v>
       </c>
       <c r="BH50">
-        <v>71702.77</v>
+        <v>121754.69</v>
       </c>
       <c r="BI50" t="s">
         <v>319</v>
@@ -14641,10 +14641,10 @@
         <v>164396</v>
       </c>
       <c r="BK50">
-        <v>127962.83</v>
+        <v>152910.47</v>
       </c>
       <c r="BL50">
-        <v>94141.10000000001</v>
+        <v>137229.85</v>
       </c>
       <c r="BM50" t="s">
         <v>319</v>
@@ -14653,10 +14653,10 @@
         <v>214396</v>
       </c>
       <c r="BO50">
-        <v>170302.7</v>
+        <v>144011.7</v>
       </c>
       <c r="BP50">
-        <v>111103.08</v>
+        <v>134553.89</v>
       </c>
       <c r="BQ50" t="s">
         <v>319</v>
@@ -14665,10 +14665,10 @@
         <v>158296.5</v>
       </c>
       <c r="BS50">
-        <v>114833.69</v>
+        <v>135713.8</v>
       </c>
       <c r="BT50">
-        <v>76246.62</v>
+        <v>104086.25</v>
       </c>
       <c r="BU50" t="s">
         <v>319</v>
@@ -14677,10 +14677,10 @@
         <v>157008</v>
       </c>
       <c r="BW50">
-        <v>132381.76</v>
+        <v>143344.89</v>
       </c>
       <c r="BX50">
-        <v>97444.72</v>
+        <v>109024.92</v>
       </c>
       <c r="BY50" t="s">
         <v>319</v>
@@ -14689,10 +14689,10 @@
         <v>157008</v>
       </c>
       <c r="CA50">
-        <v>139804.09</v>
+        <v>137762.96</v>
       </c>
       <c r="CB50">
-        <v>105591.59</v>
+        <v>121989.94</v>
       </c>
       <c r="CC50" t="s">
         <v>319</v>
@@ -14701,10 +14701,10 @@
         <v>157008</v>
       </c>
       <c r="CE50">
-        <v>148800.37</v>
+        <v>149157.6</v>
       </c>
       <c r="CF50">
-        <v>105333.22</v>
+        <v>102924.33</v>
       </c>
       <c r="CG50" t="s">
         <v>319</v>
@@ -14713,10 +14713,10 @@
         <v>157008</v>
       </c>
       <c r="CI50">
-        <v>146251.52</v>
+        <v>131896.89</v>
       </c>
       <c r="CJ50">
-        <v>136046.04</v>
+        <v>112328.21</v>
       </c>
       <c r="CK50" t="s">
         <v>319</v>
@@ -14850,10 +14850,10 @@
         <v>216500</v>
       </c>
       <c r="AU51">
-        <v>168335.6</v>
+        <v>149593.86</v>
       </c>
       <c r="AV51">
-        <v>124116.39</v>
+        <v>123092.56</v>
       </c>
       <c r="AW51" t="s">
         <v>319</v>
@@ -14862,10 +14862,10 @@
         <v>216500</v>
       </c>
       <c r="AY51">
-        <v>185898.01</v>
+        <v>180358.87</v>
       </c>
       <c r="AZ51">
-        <v>155126.36</v>
+        <v>165077.04</v>
       </c>
       <c r="BA51" t="s">
         <v>319</v>
@@ -14874,10 +14874,10 @@
         <v>216500</v>
       </c>
       <c r="BC51">
-        <v>162530.14</v>
+        <v>170176.2</v>
       </c>
       <c r="BD51">
-        <v>150770.18</v>
+        <v>121740.85</v>
       </c>
       <c r="BE51" t="s">
         <v>319</v>
@@ -14886,10 +14886,10 @@
         <v>216500</v>
       </c>
       <c r="BG51">
-        <v>175955.77</v>
+        <v>189322.71</v>
       </c>
       <c r="BH51">
-        <v>147422.95</v>
+        <v>155469.34</v>
       </c>
       <c r="BI51" t="s">
         <v>319</v>
@@ -14898,10 +14898,10 @@
         <v>327099</v>
       </c>
       <c r="BK51">
-        <v>222124.41</v>
+        <v>253634.91</v>
       </c>
       <c r="BL51">
-        <v>174406.21</v>
+        <v>217645.28</v>
       </c>
       <c r="BM51" t="s">
         <v>319</v>
@@ -14910,10 +14910,10 @@
         <v>327099</v>
       </c>
       <c r="BO51">
-        <v>293404.94</v>
+        <v>248111.35</v>
       </c>
       <c r="BP51">
-        <v>190378.75</v>
+        <v>171030.31</v>
       </c>
       <c r="BQ51" t="s">
         <v>319</v>
@@ -14922,10 +14922,10 @@
         <v>327099</v>
       </c>
       <c r="BS51">
-        <v>268952.6</v>
+        <v>220725.58</v>
       </c>
       <c r="BT51">
-        <v>187435.94</v>
+        <v>169458.51</v>
       </c>
       <c r="BU51" t="s">
         <v>319</v>
@@ -14934,10 +14934,10 @@
         <v>327099</v>
       </c>
       <c r="BW51">
-        <v>200591.89</v>
+        <v>252745.46</v>
       </c>
       <c r="BX51">
-        <v>126212.26</v>
+        <v>200162.98</v>
       </c>
       <c r="BY51" t="s">
         <v>319</v>
@@ -14946,10 +14946,10 @@
         <v>327099</v>
       </c>
       <c r="CA51">
-        <v>203916.39</v>
+        <v>295488</v>
       </c>
       <c r="CB51">
-        <v>171901.68</v>
+        <v>246980.48</v>
       </c>
       <c r="CC51" t="s">
         <v>319</v>
@@ -14958,10 +14958,10 @@
         <v>327099</v>
       </c>
       <c r="CE51">
-        <v>298434.29</v>
+        <v>283369.8</v>
       </c>
       <c r="CF51">
-        <v>183802.43</v>
+        <v>200271.85</v>
       </c>
       <c r="CG51" t="s">
         <v>319</v>
@@ -14970,10 +14970,10 @@
         <v>327099</v>
       </c>
       <c r="CI51">
-        <v>212476.39</v>
+        <v>291539.39</v>
       </c>
       <c r="CJ51">
-        <v>178889.96</v>
+        <v>232666.39</v>
       </c>
       <c r="CK51" t="s">
         <v>319</v>
@@ -15259,10 +15259,10 @@
         <v>397201</v>
       </c>
       <c r="AU53">
-        <v>254701.53</v>
+        <v>303625.26</v>
       </c>
       <c r="AV53">
-        <v>205691.1</v>
+        <v>230857.19</v>
       </c>
       <c r="AW53" t="s">
         <v>319</v>
@@ -15271,10 +15271,10 @@
         <v>397201</v>
       </c>
       <c r="AY53">
-        <v>296419.29</v>
+        <v>377340.95</v>
       </c>
       <c r="AZ53">
-        <v>236704.63</v>
+        <v>292278.32</v>
       </c>
       <c r="BA53" t="s">
         <v>319</v>
@@ -15283,10 +15283,10 @@
         <v>397201</v>
       </c>
       <c r="BC53">
-        <v>358723.14</v>
+        <v>300952.56</v>
       </c>
       <c r="BD53">
-        <v>298094.7</v>
+        <v>224393.34</v>
       </c>
       <c r="BE53" t="s">
         <v>319</v>
@@ -15295,10 +15295,10 @@
         <v>397201</v>
       </c>
       <c r="BG53">
-        <v>249950.45</v>
+        <v>293726.13</v>
       </c>
       <c r="BH53">
-        <v>152871.47</v>
+        <v>270622.45</v>
       </c>
       <c r="BI53" t="s">
         <v>319</v>
@@ -15307,10 +15307,10 @@
         <v>397201</v>
       </c>
       <c r="BK53">
-        <v>241470.09</v>
+        <v>324246.96</v>
       </c>
       <c r="BL53">
-        <v>196061.09</v>
+        <v>251918.81</v>
       </c>
       <c r="BM53" t="s">
         <v>319</v>
@@ -15319,10 +15319,10 @@
         <v>397201</v>
       </c>
       <c r="BO53">
-        <v>326807.81</v>
+        <v>362255.15</v>
       </c>
       <c r="BP53">
-        <v>259359.75</v>
+        <v>289786.89</v>
       </c>
       <c r="BQ53" t="s">
         <v>319</v>
@@ -15331,10 +15331,10 @@
         <v>397201</v>
       </c>
       <c r="BS53">
-        <v>355897.2</v>
+        <v>300961.94</v>
       </c>
       <c r="BT53">
-        <v>283369.38</v>
+        <v>227248.98</v>
       </c>
       <c r="BU53" t="s">
         <v>319</v>
@@ -15343,10 +15343,10 @@
         <v>397201</v>
       </c>
       <c r="BW53">
-        <v>299774.46</v>
+        <v>328181.18</v>
       </c>
       <c r="BX53">
-        <v>283746.61</v>
+        <v>238062.21</v>
       </c>
       <c r="BY53" t="s">
         <v>319</v>
@@ -15355,10 +15355,10 @@
         <v>397201</v>
       </c>
       <c r="CA53">
-        <v>312702.9</v>
+        <v>304198.37</v>
       </c>
       <c r="CB53">
-        <v>261775.67</v>
+        <v>236482.92</v>
       </c>
       <c r="CC53" t="s">
         <v>319</v>
@@ -15367,10 +15367,10 @@
         <v>397201</v>
       </c>
       <c r="CE53">
-        <v>268119.47</v>
+        <v>311442.46</v>
       </c>
       <c r="CF53">
-        <v>175971.98</v>
+        <v>281280.32</v>
       </c>
       <c r="CG53" t="s">
         <v>319</v>
@@ -15379,10 +15379,10 @@
         <v>397201</v>
       </c>
       <c r="CI53">
-        <v>247649.88</v>
+        <v>326770.27</v>
       </c>
       <c r="CJ53">
-        <v>183556.48</v>
+        <v>265760.45</v>
       </c>
       <c r="CK53" t="s">
         <v>319</v>
@@ -15504,10 +15504,10 @@
         <v>453039</v>
       </c>
       <c r="AU54">
-        <v>305731.22</v>
+        <v>333604.42</v>
       </c>
       <c r="AV54">
-        <v>231000.7</v>
+        <v>251620.32</v>
       </c>
       <c r="AW54" t="s">
         <v>319</v>
@@ -15516,10 +15516,10 @@
         <v>453039</v>
       </c>
       <c r="AY54">
-        <v>302539.82</v>
+        <v>350974.69</v>
       </c>
       <c r="AZ54">
-        <v>246989.37</v>
+        <v>247804.8</v>
       </c>
       <c r="BA54" t="s">
         <v>319</v>
@@ -15528,10 +15528,10 @@
         <v>453039</v>
       </c>
       <c r="BC54">
-        <v>378512.38</v>
+        <v>328398.08</v>
       </c>
       <c r="BD54">
-        <v>255127.87</v>
+        <v>195180.74</v>
       </c>
       <c r="BE54" t="s">
         <v>319</v>
@@ -15540,10 +15540,10 @@
         <v>453039</v>
       </c>
       <c r="BG54">
-        <v>295156.02</v>
+        <v>386408.19</v>
       </c>
       <c r="BH54">
-        <v>270173.82</v>
+        <v>303889.08</v>
       </c>
       <c r="BI54" t="s">
         <v>319</v>
@@ -15552,10 +15552,10 @@
         <v>453039</v>
       </c>
       <c r="BK54">
-        <v>402099.9</v>
+        <v>364831.29</v>
       </c>
       <c r="BL54">
-        <v>381915.49</v>
+        <v>322667.6</v>
       </c>
       <c r="BM54" t="s">
         <v>319</v>
@@ -15564,10 +15564,10 @@
         <v>453039</v>
       </c>
       <c r="BO54">
-        <v>406493.6</v>
+        <v>369550.19</v>
       </c>
       <c r="BP54">
-        <v>288258.33</v>
+        <v>277879.66</v>
       </c>
       <c r="BQ54" t="s">
         <v>319</v>
@@ -15576,10 +15576,10 @@
         <v>453039</v>
       </c>
       <c r="BS54">
-        <v>331773.07</v>
+        <v>292398.71</v>
       </c>
       <c r="BT54">
-        <v>302768.59</v>
+        <v>239456.12</v>
       </c>
       <c r="BU54" t="s">
         <v>716</v>
@@ -15588,10 +15588,10 @@
         <v>453039</v>
       </c>
       <c r="BW54">
-        <v>299977.46</v>
+        <v>330237.45</v>
       </c>
       <c r="BX54">
-        <v>274015.52</v>
+        <v>264615.66</v>
       </c>
       <c r="BY54" t="s">
         <v>319</v>
@@ -15600,10 +15600,10 @@
         <v>453039</v>
       </c>
       <c r="CA54">
-        <v>379262.56</v>
+        <v>360055.89</v>
       </c>
       <c r="CB54">
-        <v>248097.27</v>
+        <v>292006.49</v>
       </c>
       <c r="CC54" t="s">
         <v>319</v>
@@ -15612,10 +15612,10 @@
         <v>453039</v>
       </c>
       <c r="CE54">
-        <v>328366.18</v>
+        <v>408047.05</v>
       </c>
       <c r="CF54">
-        <v>261680.89</v>
+        <v>322950.48</v>
       </c>
       <c r="CG54" t="s">
         <v>319</v>
@@ -15624,10 +15624,10 @@
         <v>453039</v>
       </c>
       <c r="CI54">
-        <v>405288.02</v>
+        <v>427666.6</v>
       </c>
       <c r="CJ54">
-        <v>308560.29</v>
+        <v>366816.11</v>
       </c>
       <c r="CK54" t="s">
         <v>319</v>
@@ -15755,10 +15755,10 @@
         <v>209074</v>
       </c>
       <c r="AU55">
-        <v>142348.82</v>
+        <v>176992.46</v>
       </c>
       <c r="AV55">
-        <v>128135.98</v>
+        <v>145646.63</v>
       </c>
       <c r="AW55" t="s">
         <v>319</v>
@@ -15767,10 +15767,10 @@
         <v>209074</v>
       </c>
       <c r="AY55">
-        <v>163078.51</v>
+        <v>145486.9</v>
       </c>
       <c r="AZ55">
-        <v>143755.96</v>
+        <v>113504.86</v>
       </c>
       <c r="BA55" t="s">
         <v>319</v>
@@ -15779,10 +15779,10 @@
         <v>209074</v>
       </c>
       <c r="BC55">
-        <v>169557.01</v>
+        <v>167327.18</v>
       </c>
       <c r="BD55">
-        <v>134344</v>
+        <v>154713.07</v>
       </c>
       <c r="BE55" t="s">
         <v>319</v>
@@ -15791,10 +15791,10 @@
         <v>209074</v>
       </c>
       <c r="BG55">
-        <v>174665.33</v>
+        <v>138717.27</v>
       </c>
       <c r="BH55">
-        <v>161104.15</v>
+        <v>110827.14</v>
       </c>
       <c r="BI55" t="s">
         <v>319</v>
@@ -15803,10 +15803,10 @@
         <v>209074</v>
       </c>
       <c r="BK55">
-        <v>192889.1</v>
+        <v>186342.44</v>
       </c>
       <c r="BL55">
-        <v>121797.04</v>
+        <v>154075.6</v>
       </c>
       <c r="BM55" t="s">
         <v>319</v>
@@ -15815,10 +15815,10 @@
         <v>209074</v>
       </c>
       <c r="BO55">
-        <v>146232.48</v>
+        <v>142076.61</v>
       </c>
       <c r="BP55">
-        <v>131060.07</v>
+        <v>110348.98</v>
       </c>
       <c r="BQ55" t="s">
         <v>704</v>
@@ -15827,10 +15827,10 @@
         <v>184683</v>
       </c>
       <c r="BS55">
-        <v>164354.4</v>
+        <v>151537.52</v>
       </c>
       <c r="BT55">
-        <v>145784.37</v>
+        <v>120340.24</v>
       </c>
       <c r="BU55" t="s">
         <v>319</v>
@@ -15839,10 +15839,10 @@
         <v>75000</v>
       </c>
       <c r="BW55">
-        <v>69134.10000000001</v>
+        <v>68719.85000000001</v>
       </c>
       <c r="BX55">
-        <v>51392.71</v>
+        <v>47691.89</v>
       </c>
       <c r="BY55" t="s">
         <v>729</v>
@@ -15851,10 +15851,10 @@
         <v>58426</v>
       </c>
       <c r="CA55">
-        <v>41779.47</v>
+        <v>49340.42</v>
       </c>
       <c r="CB55">
-        <v>25327.38</v>
+        <v>42073.76</v>
       </c>
       <c r="CC55" t="s">
         <v>319</v>
@@ -15863,10 +15863,10 @@
         <v>58426</v>
       </c>
       <c r="CE55">
-        <v>49778.54</v>
+        <v>49683.62</v>
       </c>
       <c r="CF55">
-        <v>45596.21</v>
+        <v>44052.45</v>
       </c>
       <c r="CG55" t="s">
         <v>319</v>
@@ -15875,10 +15875,10 @@
         <v>58426</v>
       </c>
       <c r="CI55">
-        <v>35742.96</v>
+        <v>48265.94</v>
       </c>
       <c r="CJ55">
-        <v>24452.3</v>
+        <v>37070.21</v>
       </c>
       <c r="CK55" t="s">
         <v>319</v>
@@ -16006,10 +16006,10 @@
         <v>2060000</v>
       </c>
       <c r="AU56">
-        <v>1479713.63</v>
+        <v>1768079.45</v>
       </c>
       <c r="AV56">
-        <v>1347459.47</v>
+        <v>1407685.81</v>
       </c>
       <c r="AW56" t="s">
         <v>319</v>
@@ -16018,10 +16018,10 @@
         <v>2060000</v>
       </c>
       <c r="AY56">
-        <v>1886733.95</v>
+        <v>1756715.25</v>
       </c>
       <c r="AZ56">
-        <v>1219732.17</v>
+        <v>1407001.62</v>
       </c>
       <c r="BA56" t="s">
         <v>319</v>
@@ -16030,10 +16030,10 @@
         <v>2060000</v>
       </c>
       <c r="BC56">
-        <v>1476920.01</v>
+        <v>1946833.58</v>
       </c>
       <c r="BD56">
-        <v>1147518.9</v>
+        <v>1720892.73</v>
       </c>
       <c r="BE56" t="s">
         <v>319</v>
@@ -16042,10 +16042,10 @@
         <v>2060000</v>
       </c>
       <c r="BG56">
-        <v>1715259.37</v>
+        <v>1949703.71</v>
       </c>
       <c r="BH56">
-        <v>1608626.9</v>
+        <v>1683336.71</v>
       </c>
       <c r="BI56" t="s">
         <v>319</v>
@@ -16054,10 +16054,10 @@
         <v>2060000</v>
       </c>
       <c r="BK56">
-        <v>1353111.58</v>
+        <v>1781055.94</v>
       </c>
       <c r="BL56">
-        <v>877527.52</v>
+        <v>1692003.14</v>
       </c>
       <c r="BM56" t="s">
         <v>319</v>
@@ -16066,10 +16066,10 @@
         <v>2054986</v>
       </c>
       <c r="BO56">
-        <v>1392236.67</v>
+        <v>1621148.35</v>
       </c>
       <c r="BP56">
-        <v>1198875.17</v>
+        <v>1285644.31</v>
       </c>
       <c r="BQ56" t="s">
         <v>319</v>
@@ -16078,10 +16078,10 @@
         <v>2054986</v>
       </c>
       <c r="BS56">
-        <v>1756854.67</v>
+        <v>1307072.68</v>
       </c>
       <c r="BT56">
-        <v>1431792.67</v>
+        <v>988499.74</v>
       </c>
       <c r="BU56" t="s">
         <v>319</v>
@@ -16090,10 +16090,10 @@
         <v>2054986</v>
       </c>
       <c r="BW56">
-        <v>1565157.32</v>
+        <v>1704817.71</v>
       </c>
       <c r="BX56">
-        <v>1214541.98</v>
+        <v>1544717.13</v>
       </c>
       <c r="BY56" t="s">
         <v>319</v>
@@ -16102,10 +16102,10 @@
         <v>2054986</v>
       </c>
       <c r="CA56">
-        <v>1939479.32</v>
+        <v>1746016.93</v>
       </c>
       <c r="CB56">
-        <v>1711130.69</v>
+        <v>1287259.87</v>
       </c>
       <c r="CC56" t="s">
         <v>319</v>
@@ -16114,10 +16114,10 @@
         <v>2054986</v>
       </c>
       <c r="CE56">
-        <v>1347026.21</v>
+        <v>1922625.54</v>
       </c>
       <c r="CF56">
-        <v>1080852.79</v>
+        <v>1725670.64</v>
       </c>
       <c r="CG56" t="s">
         <v>319</v>
@@ -16126,10 +16126,10 @@
         <v>2054986</v>
       </c>
       <c r="CI56">
-        <v>1295113.12</v>
+        <v>1787125.39</v>
       </c>
       <c r="CJ56">
-        <v>962116.6800000001</v>
+        <v>1194693.16</v>
       </c>
       <c r="CK56" t="s">
         <v>319</v>
@@ -16421,10 +16421,10 @@
         <v>6000</v>
       </c>
       <c r="AU58">
-        <v>4284.8</v>
+        <v>4906.51</v>
       </c>
       <c r="AV58">
-        <v>2840.07</v>
+        <v>3809.1</v>
       </c>
       <c r="AW58" t="s">
         <v>319</v>
@@ -16433,10 +16433,10 @@
         <v>6000</v>
       </c>
       <c r="AY58">
-        <v>5050.91</v>
+        <v>4666.64</v>
       </c>
       <c r="AZ58">
-        <v>4710.06</v>
+        <v>4041.22</v>
       </c>
       <c r="BA58" t="s">
         <v>319</v>
@@ -16445,10 +16445,10 @@
         <v>6000</v>
       </c>
       <c r="BC58">
-        <v>5551.2</v>
+        <v>4946.24</v>
       </c>
       <c r="BD58">
-        <v>3341.03</v>
+        <v>4108.56</v>
       </c>
       <c r="BE58" t="s">
         <v>319</v>
@@ -16457,10 +16457,10 @@
         <v>6000</v>
       </c>
       <c r="BG58">
-        <v>4521.7</v>
+        <v>5594.38</v>
       </c>
       <c r="BH58">
-        <v>3661.15</v>
+        <v>5180.32</v>
       </c>
       <c r="BI58" t="s">
         <v>319</v>
@@ -16469,10 +16469,10 @@
         <v>6000</v>
       </c>
       <c r="BK58">
-        <v>4772.54</v>
+        <v>5152.06</v>
       </c>
       <c r="BL58">
-        <v>2940.25</v>
+        <v>4667.77</v>
       </c>
       <c r="BM58" t="s">
         <v>319</v>
@@ -16481,10 +16481,10 @@
         <v>6000</v>
       </c>
       <c r="BO58">
-        <v>4001.41</v>
+        <v>4832.82</v>
       </c>
       <c r="BP58">
-        <v>3627.25</v>
+        <v>3541.31</v>
       </c>
       <c r="BQ58" t="s">
         <v>319</v>
@@ -16493,10 +16493,10 @@
         <v>6000</v>
       </c>
       <c r="BS58">
-        <v>4370.33</v>
+        <v>4486.34</v>
       </c>
       <c r="BT58">
-        <v>3268.61</v>
+        <v>3149.33</v>
       </c>
       <c r="BU58" t="s">
         <v>319</v>
@@ -16505,10 +16505,10 @@
         <v>6000</v>
       </c>
       <c r="BW58">
-        <v>5217.85</v>
+        <v>4764.64</v>
       </c>
       <c r="BX58">
-        <v>3356.66</v>
+        <v>4005.05</v>
       </c>
       <c r="BY58" t="s">
         <v>319</v>
@@ -16517,10 +16517,10 @@
         <v>6000</v>
       </c>
       <c r="CA58">
-        <v>5550.5</v>
+        <v>4590.23</v>
       </c>
       <c r="CB58">
-        <v>3416.03</v>
+        <v>3256.75</v>
       </c>
       <c r="CC58" t="s">
         <v>319</v>
@@ -16529,10 +16529,10 @@
         <v>6000</v>
       </c>
       <c r="CE58">
-        <v>4764.86</v>
+        <v>5170.78</v>
       </c>
       <c r="CF58">
-        <v>3623.51</v>
+        <v>3841.02</v>
       </c>
       <c r="CG58" t="s">
         <v>319</v>
@@ -16541,10 +16541,10 @@
         <v>6000</v>
       </c>
       <c r="CI58">
-        <v>5063.07</v>
+        <v>4655.52</v>
       </c>
       <c r="CJ58">
-        <v>4208.04</v>
+        <v>3794.09</v>
       </c>
       <c r="CK58" t="s">
         <v>319</v>
@@ -16672,10 +16672,10 @@
         <v>100000</v>
       </c>
       <c r="AU59">
-        <v>80182.21000000001</v>
+        <v>80318.96000000001</v>
       </c>
       <c r="AV59">
-        <v>63688.59</v>
+        <v>70010.92</v>
       </c>
       <c r="AW59" t="s">
         <v>319</v>
@@ -16684,10 +16684,10 @@
         <v>100000</v>
       </c>
       <c r="AY59">
-        <v>92125.83</v>
+        <v>79063.35000000001</v>
       </c>
       <c r="AZ59">
-        <v>82180.77</v>
+        <v>64042.3</v>
       </c>
       <c r="BA59" t="s">
         <v>319</v>
@@ -16696,10 +16696,10 @@
         <v>100000</v>
       </c>
       <c r="BC59">
-        <v>74599.34</v>
+        <v>85919.97</v>
       </c>
       <c r="BD59">
-        <v>53470.83</v>
+        <v>62462.1</v>
       </c>
       <c r="BE59" t="s">
         <v>319</v>
@@ -16708,10 +16708,10 @@
         <v>100000</v>
       </c>
       <c r="BG59">
-        <v>81041.49000000001</v>
+        <v>81217.31</v>
       </c>
       <c r="BH59">
-        <v>48713.96</v>
+        <v>77156.44</v>
       </c>
       <c r="BI59" t="s">
         <v>319</v>
@@ -16720,10 +16720,10 @@
         <v>100000</v>
       </c>
       <c r="BK59">
-        <v>92794.75</v>
+        <v>79961.53999999999</v>
       </c>
       <c r="BL59">
-        <v>57685.19</v>
+        <v>65826.31</v>
       </c>
       <c r="BM59" t="s">
         <v>319</v>
@@ -16732,10 +16732,10 @@
         <v>100000</v>
       </c>
       <c r="BO59">
-        <v>89367.22</v>
+        <v>89439.27</v>
       </c>
       <c r="BP59">
-        <v>78251.02</v>
+        <v>72694.99000000001</v>
       </c>
       <c r="BQ59" t="s">
         <v>319</v>
@@ -16744,10 +16744,10 @@
         <v>100000</v>
       </c>
       <c r="BS59">
-        <v>82649.34</v>
+        <v>86471.06</v>
       </c>
       <c r="BT59">
-        <v>54590.3</v>
+        <v>63859.09</v>
       </c>
       <c r="BU59" t="s">
         <v>319</v>
@@ -16756,10 +16756,10 @@
         <v>100000</v>
       </c>
       <c r="BW59">
-        <v>71502.3</v>
+        <v>72976.28999999999</v>
       </c>
       <c r="BX59">
-        <v>47173.34</v>
+        <v>57875.89</v>
       </c>
       <c r="BY59" t="s">
         <v>319</v>
@@ -16768,10 +16768,10 @@
         <v>100000</v>
       </c>
       <c r="CA59">
-        <v>77512.14</v>
+        <v>88161.31</v>
       </c>
       <c r="CB59">
-        <v>66784.60000000001</v>
+        <v>76184.50999999999</v>
       </c>
       <c r="CC59" t="s">
         <v>319</v>
@@ -16780,10 +16780,10 @@
         <v>100000</v>
       </c>
       <c r="CE59">
-        <v>84310.39</v>
+        <v>72856.38</v>
       </c>
       <c r="CF59">
-        <v>65734.82000000001</v>
+        <v>50714.1</v>
       </c>
       <c r="CG59" t="s">
         <v>319</v>
@@ -16792,10 +16792,10 @@
         <v>100000</v>
       </c>
       <c r="CI59">
-        <v>85162.89999999999</v>
+        <v>73891.42999999999</v>
       </c>
       <c r="CJ59">
-        <v>62538.15</v>
+        <v>64336.44</v>
       </c>
       <c r="CK59" t="s">
         <v>319</v>
@@ -17081,10 +17081,10 @@
         <v>1450000</v>
       </c>
       <c r="AU61">
-        <v>1184098.63</v>
+        <v>1223182.41</v>
       </c>
       <c r="AV61">
-        <v>835676.26</v>
+        <v>1100958.55</v>
       </c>
       <c r="AW61" t="s">
         <v>319</v>
@@ -17093,10 +17093,10 @@
         <v>1450000</v>
       </c>
       <c r="AY61">
-        <v>894533.0600000001</v>
+        <v>1155326.28</v>
       </c>
       <c r="AZ61">
-        <v>615769.22</v>
+        <v>847736.4399999999</v>
       </c>
       <c r="BA61" t="s">
         <v>319</v>
@@ -17105,10 +17105,10 @@
         <v>1450000</v>
       </c>
       <c r="BC61">
-        <v>1357824.77</v>
+        <v>1097139.65</v>
       </c>
       <c r="BD61">
-        <v>1277527.06</v>
+        <v>773205.86</v>
       </c>
       <c r="BE61" t="s">
         <v>319</v>
@@ -17117,10 +17117,10 @@
         <v>1450000</v>
       </c>
       <c r="BG61">
-        <v>883933.14</v>
+        <v>935623.79</v>
       </c>
       <c r="BH61">
-        <v>575301.54</v>
+        <v>754926.1800000001</v>
       </c>
       <c r="BI61" t="s">
         <v>319</v>
@@ -17129,10 +17129,10 @@
         <v>1450000</v>
       </c>
       <c r="BK61">
-        <v>1068559.66</v>
+        <v>1014497.21</v>
       </c>
       <c r="BL61">
-        <v>975476.83</v>
+        <v>931150.74</v>
       </c>
       <c r="BM61" t="s">
         <v>319</v>
@@ -17141,10 +17141,10 @@
         <v>1450000</v>
       </c>
       <c r="BO61">
-        <v>1119421.67</v>
+        <v>999015.98</v>
       </c>
       <c r="BP61">
-        <v>684911.13</v>
+        <v>803190.6</v>
       </c>
       <c r="BQ61" t="s">
         <v>319</v>
@@ -17153,10 +17153,10 @@
         <v>1450000</v>
       </c>
       <c r="BS61">
-        <v>1290115.92</v>
+        <v>1137087.05</v>
       </c>
       <c r="BT61">
-        <v>1197917.24</v>
+        <v>954158.46</v>
       </c>
       <c r="BU61" t="s">
         <v>319</v>
@@ -17165,10 +17165,10 @@
         <v>944250</v>
       </c>
       <c r="BW61">
-        <v>856854.9</v>
+        <v>755857.52</v>
       </c>
       <c r="BX61">
-        <v>535261.26</v>
+        <v>570992.77</v>
       </c>
       <c r="BY61" t="s">
         <v>319</v>
@@ -17177,10 +17177,10 @@
         <v>944250</v>
       </c>
       <c r="CA61">
-        <v>600823.12</v>
+        <v>698890.6800000001</v>
       </c>
       <c r="CB61">
-        <v>523906.01</v>
+        <v>538451.01</v>
       </c>
       <c r="CC61" t="s">
         <v>319</v>
@@ -17189,10 +17189,10 @@
         <v>944250</v>
       </c>
       <c r="CE61">
-        <v>748381.38</v>
+        <v>658470.92</v>
       </c>
       <c r="CF61">
-        <v>685641.46</v>
+        <v>572256.4300000001</v>
       </c>
       <c r="CG61" t="s">
         <v>319</v>
@@ -17201,10 +17201,10 @@
         <v>944250</v>
       </c>
       <c r="CI61">
-        <v>654221.59</v>
+        <v>756411.02</v>
       </c>
       <c r="CJ61">
-        <v>405569.18</v>
+        <v>617199.1</v>
       </c>
       <c r="CK61" t="s">
         <v>319</v>
@@ -17329,10 +17329,10 @@
         <v>100000</v>
       </c>
       <c r="AU62">
-        <v>71198.91</v>
+        <v>61962.33</v>
       </c>
       <c r="AV62">
-        <v>48636.01</v>
+        <v>45500.84</v>
       </c>
       <c r="AW62" t="s">
         <v>319</v>
@@ -17341,10 +17341,10 @@
         <v>100000</v>
       </c>
       <c r="AY62">
-        <v>65190.1</v>
+        <v>73865.88</v>
       </c>
       <c r="AZ62">
-        <v>60263.49</v>
+        <v>53161.88</v>
       </c>
       <c r="BA62" t="s">
         <v>319</v>
@@ -17353,10 +17353,10 @@
         <v>100000</v>
       </c>
       <c r="BC62">
-        <v>80498.12</v>
+        <v>90143.31</v>
       </c>
       <c r="BD62">
-        <v>63794.96</v>
+        <v>63313.64</v>
       </c>
       <c r="BE62" t="s">
         <v>319</v>
@@ -17365,10 +17365,10 @@
         <v>100000</v>
       </c>
       <c r="BG62">
-        <v>77889.53</v>
+        <v>79455.98</v>
       </c>
       <c r="BH62">
-        <v>58470.45</v>
+        <v>55924.81</v>
       </c>
       <c r="BI62" t="s">
         <v>319</v>
@@ -17377,10 +17377,10 @@
         <v>100000</v>
       </c>
       <c r="BK62">
-        <v>93193.24000000001</v>
+        <v>77526.32000000001</v>
       </c>
       <c r="BL62">
-        <v>71092.63</v>
+        <v>63564.06</v>
       </c>
       <c r="BM62" t="s">
         <v>694</v>
@@ -17389,10 +17389,10 @@
         <v>82194</v>
       </c>
       <c r="BO62">
-        <v>53127.15</v>
+        <v>68322.35000000001</v>
       </c>
       <c r="BP62">
-        <v>40366.63</v>
+        <v>57418.95</v>
       </c>
       <c r="BQ62" t="s">
         <v>319</v>
@@ -17401,10 +17401,10 @@
         <v>82194</v>
       </c>
       <c r="BS62">
-        <v>52135.33</v>
+        <v>65298.78</v>
       </c>
       <c r="BT62">
-        <v>31690.96</v>
+        <v>43797.69</v>
       </c>
       <c r="BU62" t="s">
         <v>319</v>
@@ -17413,10 +17413,10 @@
         <v>82194</v>
       </c>
       <c r="BW62">
-        <v>70826.28</v>
+        <v>52659.17</v>
       </c>
       <c r="BX62">
-        <v>53396.6</v>
+        <v>45247.23</v>
       </c>
       <c r="BY62" t="s">
         <v>319</v>
@@ -17425,10 +17425,10 @@
         <v>82194</v>
       </c>
       <c r="CA62">
-        <v>67943.67999999999</v>
+        <v>62133.8</v>
       </c>
       <c r="CB62">
-        <v>64188.73</v>
+        <v>45172.14</v>
       </c>
       <c r="CC62" t="s">
         <v>319</v>
@@ -17437,10 +17437,10 @@
         <v>82194</v>
       </c>
       <c r="CE62">
-        <v>74064.62</v>
+        <v>62202.5</v>
       </c>
       <c r="CF62">
-        <v>59404.78</v>
+        <v>48328.41</v>
       </c>
       <c r="CG62" t="s">
         <v>319</v>
@@ -17449,10 +17449,10 @@
         <v>82194</v>
       </c>
       <c r="CI62">
-        <v>76403.55</v>
+        <v>76311.33</v>
       </c>
       <c r="CJ62">
-        <v>49005.09</v>
+        <v>52325.44</v>
       </c>
       <c r="CK62" t="s">
         <v>319</v>
@@ -17580,10 +17580,10 @@
         <v>114130</v>
       </c>
       <c r="AU63">
-        <v>105563.44</v>
+        <v>102081.1</v>
       </c>
       <c r="AV63">
-        <v>88571.37</v>
+        <v>86356.66</v>
       </c>
       <c r="AW63" t="s">
         <v>319</v>
@@ -17592,10 +17592,10 @@
         <v>114130</v>
       </c>
       <c r="AY63">
-        <v>98392.78</v>
+        <v>98782.84</v>
       </c>
       <c r="AZ63">
-        <v>77348.99000000001</v>
+        <v>88175.13</v>
       </c>
       <c r="BA63" t="s">
         <v>319</v>
@@ -17604,10 +17604,10 @@
         <v>114130</v>
       </c>
       <c r="BC63">
-        <v>104557.27</v>
+        <v>87392.86</v>
       </c>
       <c r="BD63">
-        <v>62973.78</v>
+        <v>68572.61</v>
       </c>
       <c r="BE63" t="s">
         <v>319</v>
@@ -17616,10 +17616,10 @@
         <v>114130</v>
       </c>
       <c r="BG63">
-        <v>90038.55</v>
+        <v>90622.35000000001</v>
       </c>
       <c r="BH63">
-        <v>79249.39</v>
+        <v>75953.34</v>
       </c>
       <c r="BI63" t="s">
         <v>319</v>
@@ -17628,10 +17628,10 @@
         <v>114130</v>
       </c>
       <c r="BK63">
-        <v>87988.64</v>
+        <v>97656.89999999999</v>
       </c>
       <c r="BL63">
-        <v>72384.91</v>
+        <v>92774.06</v>
       </c>
       <c r="BM63" t="s">
         <v>319</v>
@@ -17640,10 +17640,10 @@
         <v>114130</v>
       </c>
       <c r="BO63">
-        <v>70221.53</v>
+        <v>91998.82000000001</v>
       </c>
       <c r="BP63">
-        <v>43692.91</v>
+        <v>86312.5</v>
       </c>
       <c r="BQ63" t="s">
         <v>319</v>
@@ -17652,10 +17652,10 @@
         <v>114130</v>
       </c>
       <c r="BS63">
-        <v>74178.23</v>
+        <v>94969.66</v>
       </c>
       <c r="BT63">
-        <v>64235.82</v>
+        <v>79958.46000000001</v>
       </c>
       <c r="BU63" t="s">
         <v>717</v>
@@ -17664,10 +17664,10 @@
         <v>1372196</v>
       </c>
       <c r="BW63">
-        <v>1166519.53</v>
+        <v>1046123.39</v>
       </c>
       <c r="BX63">
-        <v>1063239.79</v>
+        <v>870845.33</v>
       </c>
       <c r="BY63" t="s">
         <v>319</v>
@@ -17676,10 +17676,10 @@
         <v>302624</v>
       </c>
       <c r="CA63">
-        <v>196494.68</v>
+        <v>234748.66</v>
       </c>
       <c r="CB63">
-        <v>161174.18</v>
+        <v>212663.24</v>
       </c>
       <c r="CC63" t="s">
         <v>319</v>
@@ -17688,10 +17688,10 @@
         <v>302624</v>
       </c>
       <c r="CE63">
-        <v>198119.88</v>
+        <v>252212.02</v>
       </c>
       <c r="CF63">
-        <v>185350.17</v>
+        <v>188471.02</v>
       </c>
       <c r="CG63" t="s">
         <v>319</v>
@@ -17700,10 +17700,10 @@
         <v>302624</v>
       </c>
       <c r="CI63">
-        <v>200453.74</v>
+        <v>229104.66</v>
       </c>
       <c r="CJ63">
-        <v>122026.27</v>
+        <v>182770.4</v>
       </c>
       <c r="CK63" t="s">
         <v>319</v>
@@ -17831,10 +17831,10 @@
         <v>526477</v>
       </c>
       <c r="AU64">
-        <v>455239.14</v>
+        <v>474100.11</v>
       </c>
       <c r="AV64">
-        <v>304080.22</v>
+        <v>367287.33</v>
       </c>
       <c r="AW64" t="s">
         <v>319</v>
@@ -17843,10 +17843,10 @@
         <v>526477</v>
       </c>
       <c r="AY64">
-        <v>496357.29</v>
+        <v>453615.01</v>
       </c>
       <c r="AZ64">
-        <v>331641.9</v>
+        <v>331462.26</v>
       </c>
       <c r="BA64" t="s">
         <v>319</v>
@@ -17855,10 +17855,10 @@
         <v>526477</v>
       </c>
       <c r="BC64">
-        <v>419495.93</v>
+        <v>486499.42</v>
       </c>
       <c r="BD64">
-        <v>255314.18</v>
+        <v>345490.15</v>
       </c>
       <c r="BE64" t="s">
         <v>319</v>
@@ -17867,10 +17867,10 @@
         <v>526477</v>
       </c>
       <c r="BG64">
-        <v>467397.91</v>
+        <v>392281.39</v>
       </c>
       <c r="BH64">
-        <v>440267.89</v>
+        <v>323562.36</v>
       </c>
       <c r="BI64" t="s">
         <v>319</v>
@@ -17879,10 +17879,10 @@
         <v>281956</v>
       </c>
       <c r="BK64">
-        <v>209401.27</v>
+        <v>249223.43</v>
       </c>
       <c r="BL64">
-        <v>149435.33</v>
+        <v>182962.77</v>
       </c>
       <c r="BM64" t="s">
         <v>319</v>
@@ -17891,10 +17891,10 @@
         <v>281956</v>
       </c>
       <c r="BO64">
-        <v>181558.9</v>
+        <v>223089.15</v>
       </c>
       <c r="BP64">
-        <v>125511</v>
+        <v>170056.81</v>
       </c>
       <c r="BQ64" t="s">
         <v>319</v>
@@ -17903,10 +17903,10 @@
         <v>281956</v>
       </c>
       <c r="BS64">
-        <v>179814.42</v>
+        <v>255493.86</v>
       </c>
       <c r="BT64">
-        <v>131316.2</v>
+        <v>179102.37</v>
       </c>
       <c r="BU64" t="s">
         <v>319</v>
@@ -17915,10 +17915,10 @@
         <v>281956</v>
       </c>
       <c r="BW64">
-        <v>202693.04</v>
+        <v>207612.59</v>
       </c>
       <c r="BX64">
-        <v>137719.89</v>
+        <v>156777.14</v>
       </c>
       <c r="BY64" t="s">
         <v>319</v>
@@ -17927,10 +17927,10 @@
         <v>281956</v>
       </c>
       <c r="CA64">
-        <v>262641.18</v>
+        <v>232713.55</v>
       </c>
       <c r="CB64">
-        <v>225946.08</v>
+        <v>207961.12</v>
       </c>
       <c r="CC64" t="s">
         <v>319</v>
@@ -17939,10 +17939,10 @@
         <v>281956</v>
       </c>
       <c r="CE64">
-        <v>230624.49</v>
+        <v>199987.21</v>
       </c>
       <c r="CF64">
-        <v>203552.89</v>
+        <v>166372.26</v>
       </c>
       <c r="CG64" t="s">
         <v>319</v>
@@ -17951,10 +17951,10 @@
         <v>281956</v>
       </c>
       <c r="CI64">
-        <v>200473.22</v>
+        <v>245147.32</v>
       </c>
       <c r="CJ64">
-        <v>177738.84</v>
+        <v>200274</v>
       </c>
       <c r="CK64" t="s">
         <v>319</v>
